--- a/Results/Precipitation_transects_results.xlsx
+++ b/Results/Precipitation_transects_results.xlsx
@@ -375,7 +375,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mean_1985_1989</t>
+          <t>sum_1985_1989</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -385,7 +385,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mean_2000_2004</t>
+          <t>sum_2000_2004</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -395,7 +395,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>mean_2015_2018</t>
+          <t>sum_2015_2018</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -416,19 +416,19 @@
         </is>
       </c>
       <c r="D2">
-        <v>83.37883290449778</v>
+        <v>416.894164522489</v>
       </c>
       <c r="E2">
         <v>21.50477359633982</v>
       </c>
       <c r="F2">
-        <v>86.46933306654294</v>
+        <v>432.3466653327147</v>
       </c>
       <c r="G2">
         <v>10.91698483926393</v>
       </c>
       <c r="H2">
-        <v>112.3060416976611</v>
+        <v>449.2241667906444</v>
       </c>
       <c r="I2">
         <v>37.55898536343714</v>
@@ -446,19 +446,19 @@
         </is>
       </c>
       <c r="D3">
-        <v>81.81550010840098</v>
+        <v>409.0775005420049</v>
       </c>
       <c r="E3">
         <v>21.15809178574409</v>
       </c>
       <c r="F3">
-        <v>84.75200046896934</v>
+        <v>423.7600023448467</v>
       </c>
       <c r="G3">
         <v>10.69104904513443</v>
       </c>
       <c r="H3">
-        <v>109.9912497301897</v>
+        <v>439.9649989207586</v>
       </c>
       <c r="I3">
         <v>36.79933325785419</v>
@@ -476,19 +476,19 @@
         </is>
       </c>
       <c r="D4">
-        <v>69.47766631444296</v>
+        <v>347.3883315722147</v>
       </c>
       <c r="E4">
         <v>18.11412995257586</v>
       </c>
       <c r="F4">
-        <v>72.0929999132951</v>
+        <v>360.4649995664756</v>
       </c>
       <c r="G4">
         <v>10.44247118279394</v>
       </c>
       <c r="H4">
-        <v>95.70791648825009</v>
+        <v>382.8316659530004</v>
       </c>
       <c r="I4">
         <v>37.31301186657388</v>
@@ -506,19 +506,19 @@
         </is>
       </c>
       <c r="D5">
-        <v>78.82999998182058</v>
+        <v>394.1499999091029</v>
       </c>
       <c r="E5">
         <v>22.68084793688106</v>
       </c>
       <c r="F5">
-        <v>85.01483353376389</v>
+        <v>425.0741676688194</v>
       </c>
       <c r="G5">
         <v>12.05687619459006</v>
       </c>
       <c r="H5">
-        <v>109.6506247172753</v>
+        <v>438.6024988691012</v>
       </c>
       <c r="I5">
         <v>39.59226736433386</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="D6">
-        <v>79.34433379222949</v>
+        <v>396.7216689611475</v>
       </c>
       <c r="E6">
         <v>22.17230030489322</v>
       </c>
       <c r="F6">
-        <v>85.56733262737592</v>
+        <v>427.8366631368796</v>
       </c>
       <c r="G6">
         <v>15.20708169283073</v>
       </c>
       <c r="H6">
-        <v>110.0935419648886</v>
+        <v>440.3741678595543</v>
       </c>
       <c r="I6">
         <v>42.99571884959329</v>
@@ -566,19 +566,19 @@
         </is>
       </c>
       <c r="D7">
-        <v>83.68516677965721</v>
+        <v>418.425833898286</v>
       </c>
       <c r="E7">
         <v>24.52834791888431</v>
       </c>
       <c r="F7">
-        <v>90.3474998553594</v>
+        <v>451.737499276797</v>
       </c>
       <c r="G7">
         <v>13.1910358388992</v>
       </c>
       <c r="H7">
-        <v>116.1247919648886</v>
+        <v>464.4991678595543</v>
       </c>
       <c r="I7">
         <v>42.43455729012791</v>
@@ -596,19 +596,19 @@
         </is>
       </c>
       <c r="D8">
-        <v>89.47816657274962</v>
+        <v>447.3908328637481</v>
       </c>
       <c r="E8">
         <v>26.49710749425923</v>
       </c>
       <c r="F8">
-        <v>96.25766672690709</v>
+        <v>481.2883336345355</v>
       </c>
       <c r="G8">
         <v>12.7072718668874</v>
       </c>
       <c r="H8">
-        <v>118.8325005173683</v>
+        <v>475.3300020694733</v>
       </c>
       <c r="I8">
         <v>38.79063399774159</v>
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="D9">
-        <v>96.59933358232181</v>
+        <v>482.996667911609</v>
       </c>
       <c r="E9">
         <v>28.00935116873982</v>
       </c>
       <c r="F9">
-        <v>102.3350004355113</v>
+        <v>511.6750021775563</v>
       </c>
       <c r="G9">
         <v>15.52556002941168</v>
       </c>
       <c r="H9">
-        <v>139.856875816981</v>
+        <v>559.427503267924</v>
       </c>
       <c r="I9">
         <v>55.38077771428655</v>
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="D10">
-        <v>121.632834054033</v>
+        <v>608.1641702701649</v>
       </c>
       <c r="E10">
         <v>38.3699341425032</v>
       </c>
       <c r="F10">
-        <v>133.0275000214577</v>
+        <v>665.1375001072884</v>
       </c>
       <c r="G10">
         <v>18.79968119295051</v>
       </c>
       <c r="H10">
-        <v>156.8633346358935</v>
+        <v>627.4533385435741</v>
       </c>
       <c r="I10">
         <v>47.44968475585932</v>
@@ -686,19 +686,19 @@
         </is>
       </c>
       <c r="D11">
-        <v>93.9610002135237</v>
+        <v>469.8050010676186</v>
       </c>
       <c r="E11">
         <v>27.48062551409774</v>
       </c>
       <c r="F11">
-        <v>101.6544998506705</v>
+        <v>508.2724992533525</v>
       </c>
       <c r="G11">
         <v>13.70870605738333</v>
       </c>
       <c r="H11">
-        <v>120.1637500822544</v>
+        <v>480.6550003290176</v>
       </c>
       <c r="I11">
         <v>39.01045504103509</v>
@@ -716,19 +716,19 @@
         </is>
       </c>
       <c r="D12">
-        <v>91.38683306674163</v>
+        <v>456.9341653337081</v>
       </c>
       <c r="E12">
         <v>25.46734827097208</v>
       </c>
       <c r="F12">
-        <v>101.497500171264</v>
+        <v>507.4875008563201</v>
       </c>
       <c r="G12">
         <v>13.57484232791044</v>
       </c>
       <c r="H12">
-        <v>115.5293746093909</v>
+        <v>462.1174984375635</v>
       </c>
       <c r="I12">
         <v>34.55380883045535</v>
@@ -746,19 +746,19 @@
         </is>
       </c>
       <c r="D13">
-        <v>89.3943329239885</v>
+        <v>446.9716646199425</v>
       </c>
       <c r="E13">
         <v>23.03402031458144</v>
       </c>
       <c r="F13">
-        <v>101.4021665761868</v>
+        <v>507.0108328809341</v>
       </c>
       <c r="G13">
         <v>14.6447675446471</v>
       </c>
       <c r="H13">
-        <v>112.3962503621976</v>
+        <v>449.5850014487903</v>
       </c>
       <c r="I13">
         <v>33.55389000585284</v>
@@ -776,19 +776,19 @@
         </is>
       </c>
       <c r="D14">
-        <v>73.91016700044274</v>
+        <v>369.5508350022137</v>
       </c>
       <c r="E14">
         <v>19.50802683757887</v>
       </c>
       <c r="F14">
-        <v>82.88933308025202</v>
+        <v>414.4466654012601</v>
       </c>
       <c r="G14">
         <v>11.42870189930475</v>
       </c>
       <c r="H14">
-        <v>89.33208280801773</v>
+        <v>357.3283312320709</v>
       </c>
       <c r="I14">
         <v>25.74483877834868</v>
@@ -806,19 +806,19 @@
         </is>
       </c>
       <c r="D15">
-        <v>96.82149925529957</v>
+        <v>484.1074962764978</v>
       </c>
       <c r="E15">
         <v>27.12716448729753</v>
       </c>
       <c r="F15">
-        <v>106.6340000549952</v>
+        <v>533.1700002749761</v>
       </c>
       <c r="G15">
         <v>14.15907540958318</v>
       </c>
       <c r="H15">
-        <v>123.8243746161461</v>
+        <v>495.2974984645844</v>
       </c>
       <c r="I15">
         <v>38.69963737197764</v>
@@ -836,19 +836,19 @@
         </is>
       </c>
       <c r="D16">
-        <v>110.1246665462852</v>
+        <v>550.6233327314258</v>
       </c>
       <c r="E16">
         <v>33.0834547176886</v>
       </c>
       <c r="F16">
-        <v>121.0101674636205</v>
+        <v>605.0508373181025</v>
       </c>
       <c r="G16">
         <v>16.12737329953461</v>
       </c>
       <c r="H16">
-        <v>138.4987507263819</v>
+        <v>553.9950029055277</v>
       </c>
       <c r="I16">
         <v>40.08977944584751</v>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="D17">
-        <v>99.77916687627634</v>
+        <v>498.8958343813817</v>
       </c>
       <c r="E17">
         <v>29.05337269469311</v>
       </c>
       <c r="F17">
-        <v>109.3273333370686</v>
+        <v>546.6366666853428</v>
       </c>
       <c r="G17">
         <v>14.44215977217282</v>
       </c>
       <c r="H17">
-        <v>127.4808328648408</v>
+        <v>509.9233314593633</v>
       </c>
       <c r="I17">
         <v>39.2718165531144</v>
@@ -896,19 +896,19 @@
         </is>
       </c>
       <c r="D18">
-        <v>84.43300011456013</v>
+        <v>422.1650005728006</v>
       </c>
       <c r="E18">
         <v>23.22396293042691</v>
       </c>
       <c r="F18">
-        <v>82.44666662017504</v>
+        <v>412.2333331008752</v>
       </c>
       <c r="G18">
         <v>12.35823622862641</v>
       </c>
       <c r="H18">
-        <v>112.8666664361954</v>
+        <v>451.4666657447815</v>
       </c>
       <c r="I18">
         <v>40.12634807607992</v>
@@ -926,19 +926,19 @@
         </is>
       </c>
       <c r="D19">
-        <v>64.88616650303204</v>
+        <v>324.4308325151603</v>
       </c>
       <c r="E19">
         <v>17.36691849972391</v>
       </c>
       <c r="F19">
-        <v>65.9421664406856</v>
+        <v>329.710832203428</v>
       </c>
       <c r="G19">
         <v>8.564371441163667</v>
       </c>
       <c r="H19">
-        <v>78.72354181607564</v>
+        <v>314.8941672643026</v>
       </c>
       <c r="I19">
         <v>26.26848042855758</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="D20">
-        <v>93.89300003647804</v>
+        <v>469.4650001823902</v>
       </c>
       <c r="E20">
         <v>24.3102057558821</v>
       </c>
       <c r="F20">
-        <v>98.22066659728687</v>
+        <v>491.1033329864343</v>
       </c>
       <c r="G20">
         <v>12.11577971889613</v>
       </c>
       <c r="H20">
-        <v>125.1687495311101</v>
+        <v>500.6749981244406</v>
       </c>
       <c r="I20">
         <v>41.68491675948401</v>
@@ -986,19 +986,19 @@
         </is>
       </c>
       <c r="D21">
-        <v>84.9643331706524</v>
+        <v>424.821665853262</v>
       </c>
       <c r="E21">
         <v>22.02671799863623</v>
       </c>
       <c r="F21">
-        <v>88.0848340690136</v>
+        <v>440.424170345068</v>
       </c>
       <c r="G21">
         <v>11.08146756295991</v>
       </c>
       <c r="H21">
-        <v>113.9685412049294</v>
+        <v>455.8741648197174</v>
       </c>
       <c r="I21">
         <v>38.03217741788237</v>
@@ -1016,19 +1016,19 @@
         </is>
       </c>
       <c r="D22">
-        <v>69.84766657948494</v>
+        <v>349.2383328974247</v>
       </c>
       <c r="E22">
         <v>17.18188393396649</v>
       </c>
       <c r="F22">
-        <v>72.49783320426941</v>
+        <v>362.4891660213471</v>
       </c>
       <c r="G22">
         <v>9.216656302900551</v>
       </c>
       <c r="H22">
-        <v>95.57770875096321</v>
+        <v>382.3108350038528</v>
       </c>
       <c r="I22">
         <v>32.96717799232379</v>
@@ -1046,19 +1046,19 @@
         </is>
       </c>
       <c r="D23">
-        <v>65.08233311374983</v>
+        <v>325.4116655687491</v>
       </c>
       <c r="E23">
         <v>14.38863457238865</v>
       </c>
       <c r="F23">
-        <v>68.21316667596499</v>
+        <v>341.0658333798249</v>
       </c>
       <c r="G23">
         <v>8.741223509863188</v>
       </c>
       <c r="H23">
-        <v>91.64083300034206</v>
+        <v>366.5633320013682</v>
       </c>
       <c r="I23">
         <v>32.97250763870474</v>
@@ -1076,19 +1076,19 @@
         </is>
       </c>
       <c r="D24">
-        <v>72.26349967320761</v>
+        <v>361.317498366038</v>
       </c>
       <c r="E24">
         <v>18.1732682869225</v>
       </c>
       <c r="F24">
-        <v>75.13583323558171</v>
+        <v>375.6791661779085</v>
       </c>
       <c r="G24">
         <v>9.568140561326723</v>
       </c>
       <c r="H24">
-        <v>94.109583735466</v>
+        <v>376.438334941864</v>
       </c>
       <c r="I24">
         <v>32.11476609812611</v>
@@ -1106,19 +1106,19 @@
         </is>
       </c>
       <c r="D25">
-        <v>79.60849925776323</v>
+        <v>398.0424962888162</v>
       </c>
       <c r="E25">
         <v>20.07757377759592</v>
       </c>
       <c r="F25">
-        <v>82.64816687107086</v>
+        <v>413.2408343553543</v>
       </c>
       <c r="G25">
         <v>10.45329589457907</v>
       </c>
       <c r="H25">
-        <v>105.2743749717871</v>
+        <v>421.0974998871486</v>
       </c>
       <c r="I25">
         <v>35.66680286199521</v>
@@ -1136,19 +1136,19 @@
         </is>
       </c>
       <c r="D26">
-        <v>91.91483283638955</v>
+        <v>459.5741641819477</v>
       </c>
       <c r="E26">
         <v>24.07419429191417</v>
       </c>
       <c r="F26">
-        <v>95.08299972017606</v>
+        <v>475.4149986008803</v>
       </c>
       <c r="G26">
         <v>12.07709510476162</v>
       </c>
       <c r="H26">
-        <v>123.7281247278055</v>
+        <v>494.9124989112219</v>
       </c>
       <c r="I26">
         <v>41.074976195862</v>
@@ -1166,19 +1166,19 @@
         </is>
       </c>
       <c r="D27">
-        <v>86.91333357691765</v>
+        <v>434.5666678845882</v>
       </c>
       <c r="E27">
         <v>22.38083821598005</v>
       </c>
       <c r="F27">
-        <v>90.12683345278104</v>
+        <v>450.6341672639052</v>
       </c>
       <c r="G27">
         <v>11.39007673494221</v>
       </c>
       <c r="H27">
-        <v>116.0454164842765</v>
+        <v>464.1816659371058</v>
       </c>
       <c r="I27">
         <v>38.86766693529815</v>
@@ -1196,19 +1196,19 @@
         </is>
       </c>
       <c r="D28">
-        <v>71.23600008885066</v>
+        <v>356.1800004442533</v>
       </c>
       <c r="E28">
         <v>20.61501338558866</v>
       </c>
       <c r="F28">
-        <v>73.12649970451992</v>
+        <v>365.6324985225995</v>
       </c>
       <c r="G28">
         <v>9.851331766369357</v>
       </c>
       <c r="H28">
-        <v>88.31791713337104</v>
+        <v>353.2716685334842</v>
       </c>
       <c r="I28">
         <v>31.12041789006353</v>
@@ -1226,19 +1226,19 @@
         </is>
       </c>
       <c r="D29">
-        <v>75.59433375298977</v>
+        <v>377.9716687649488</v>
       </c>
       <c r="E29">
         <v>22.30943677650243</v>
       </c>
       <c r="F29">
-        <v>77.90033347805341</v>
+        <v>389.5016673902671</v>
       </c>
       <c r="G29">
         <v>10.57181024918149</v>
       </c>
       <c r="H29">
-        <v>94.45208344856897</v>
+        <v>377.8083337942759</v>
       </c>
       <c r="I29">
         <v>33.83702986392303</v>
@@ -1256,19 +1256,19 @@
         </is>
       </c>
       <c r="D30">
-        <v>75.59433375298977</v>
+        <v>377.9716687649488</v>
       </c>
       <c r="E30">
         <v>22.30943677650243</v>
       </c>
       <c r="F30">
-        <v>77.90033347805341</v>
+        <v>389.5016673902671</v>
       </c>
       <c r="G30">
         <v>10.57181024918149</v>
       </c>
       <c r="H30">
-        <v>94.45208344856897</v>
+        <v>377.8083337942759</v>
       </c>
       <c r="I30">
         <v>33.83702986392303</v>
@@ -1286,19 +1286,19 @@
         </is>
       </c>
       <c r="D31">
-        <v>69.54666686256726</v>
+        <v>347.7333343128364</v>
       </c>
       <c r="E31">
         <v>15.63929061055785</v>
       </c>
       <c r="F31">
-        <v>70.65050013065338</v>
+        <v>353.2525006532669</v>
       </c>
       <c r="G31">
         <v>10.13236682057787</v>
       </c>
       <c r="H31">
-        <v>100.220000376304</v>
+        <v>400.8800015052159</v>
       </c>
       <c r="I31">
         <v>39.19062352371197</v>
@@ -1316,19 +1316,19 @@
         </is>
       </c>
       <c r="D32">
-        <v>73.83233346442381</v>
+        <v>369.1616673221191</v>
       </c>
       <c r="E32">
         <v>16.42310825722618</v>
       </c>
       <c r="F32">
-        <v>75.41733336448669</v>
+        <v>377.0866668224335</v>
       </c>
       <c r="G32">
         <v>10.71429027331313</v>
       </c>
       <c r="H32">
-        <v>106.8933333853881</v>
+        <v>427.5733335415522</v>
       </c>
       <c r="I32">
         <v>41.65811058730762</v>
@@ -1346,19 +1346,19 @@
         </is>
       </c>
       <c r="D33">
-        <v>79.26333356599012</v>
+        <v>396.3166678299506</v>
       </c>
       <c r="E33">
         <v>16.54627982607586</v>
       </c>
       <c r="F33">
-        <v>81.79200038909912</v>
+        <v>408.9600019454956</v>
       </c>
       <c r="G33">
         <v>11.59733697178972</v>
       </c>
       <c r="H33">
-        <v>116.2422912518183</v>
+        <v>464.9691650072734</v>
       </c>
       <c r="I33">
         <v>46.06850024947091</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="D34">
-        <v>80.51383308172225</v>
+        <v>402.5691654086113</v>
       </c>
       <c r="E34">
         <v>16.61841345818588</v>
       </c>
       <c r="F34">
-        <v>83.47100025415421</v>
+        <v>417.355001270771</v>
       </c>
       <c r="G34">
         <v>11.74876271457169</v>
       </c>
       <c r="H34">
-        <v>118.4933338562647</v>
+        <v>473.973335425059</v>
       </c>
       <c r="I34">
         <v>46.81878350891255</v>
@@ -1406,19 +1406,19 @@
         </is>
       </c>
       <c r="D35">
-        <v>55.69383323192596</v>
+        <v>278.4691661596298</v>
       </c>
       <c r="E35">
         <v>14.10943467280121</v>
       </c>
       <c r="F35">
-        <v>54.62783319751421</v>
+        <v>273.1391659875711</v>
       </c>
       <c r="G35">
         <v>8.33868200353168</v>
       </c>
       <c r="H35">
-        <v>76.59979155659676</v>
+        <v>306.399166226387</v>
       </c>
       <c r="I35">
         <v>29.33074589310526</v>
@@ -1436,19 +1436,19 @@
         </is>
       </c>
       <c r="D36">
-        <v>86.21066688199838</v>
+        <v>431.0533344099919</v>
       </c>
       <c r="E36">
         <v>23.67446147069953</v>
       </c>
       <c r="F36">
-        <v>84.54166680773099</v>
+        <v>422.708334038655</v>
       </c>
       <c r="G36">
         <v>12.49642603586921</v>
       </c>
       <c r="H36">
-        <v>115.3960410356522</v>
+        <v>461.5841641426086</v>
       </c>
       <c r="I36">
         <v>40.54410983178463</v>
@@ -1466,19 +1466,19 @@
         </is>
       </c>
       <c r="D37">
-        <v>94.72083378036817</v>
+        <v>473.6041689018408</v>
       </c>
       <c r="E37">
         <v>25.31406909422314</v>
       </c>
       <c r="F37">
-        <v>97.11650021076203</v>
+        <v>485.5825010538101</v>
       </c>
       <c r="G37">
         <v>12.61520329176882</v>
       </c>
       <c r="H37">
-        <v>127.9649994969368</v>
+        <v>511.8599979877472</v>
       </c>
       <c r="I37">
         <v>42.49444164566215</v>
@@ -1496,19 +1496,19 @@
         </is>
       </c>
       <c r="D38">
-        <v>84.66983315050602</v>
+        <v>423.3491657525301</v>
       </c>
       <c r="E38">
         <v>22.61111490663697</v>
       </c>
       <c r="F38">
-        <v>85.16633339722951</v>
+        <v>425.8316669861476</v>
       </c>
       <c r="G38">
         <v>11.84850290391969</v>
       </c>
       <c r="H38">
-        <v>116.2889579236507</v>
+        <v>465.155831694603</v>
       </c>
       <c r="I38">
         <v>40.53759523597874</v>
@@ -1526,19 +1526,19 @@
         </is>
       </c>
       <c r="D39">
-        <v>91.56583343545596</v>
+        <v>457.8291671772798</v>
       </c>
       <c r="E39">
         <v>24.06752889008536</v>
       </c>
       <c r="F39">
-        <v>94.31866661707561</v>
+        <v>471.593333085378</v>
       </c>
       <c r="G39">
         <v>12.19880035669676</v>
       </c>
       <c r="H39">
-        <v>124.5870834688346</v>
+        <v>498.3483338753383</v>
       </c>
       <c r="I39">
         <v>41.62588362963005</v>
@@ -1556,19 +1556,19 @@
         </is>
       </c>
       <c r="D40">
-        <v>90.24666694601378</v>
+        <v>451.2333347300689</v>
       </c>
       <c r="E40">
         <v>23.26639679194987</v>
       </c>
       <c r="F40">
-        <v>94.23516628940901</v>
+        <v>471.175831447045</v>
       </c>
       <c r="G40">
         <v>11.72778030677579</v>
       </c>
       <c r="H40">
-        <v>119.6635410686334</v>
+        <v>478.6541642745336</v>
       </c>
       <c r="I40">
         <v>39.92993873070767</v>
@@ -1586,19 +1586,19 @@
         </is>
       </c>
       <c r="D41">
-        <v>66.98816652099292</v>
+        <v>334.9408326049646</v>
       </c>
       <c r="E41">
         <v>18.61729735346677</v>
       </c>
       <c r="F41">
-        <v>69.46266690095266</v>
+        <v>347.3133345047633</v>
       </c>
       <c r="G41">
         <v>9.122479424454189</v>
       </c>
       <c r="H41">
-        <v>85.19479212661584</v>
+        <v>340.7791685064634</v>
       </c>
       <c r="I41">
         <v>29.98847118427839</v>
@@ -1616,19 +1616,19 @@
         </is>
       </c>
       <c r="D42">
-        <v>85.19183290799458</v>
+        <v>425.959164539973</v>
       </c>
       <c r="E42">
         <v>21.71437367618375</v>
       </c>
       <c r="F42">
-        <v>89.06566659609477</v>
+        <v>445.3283329804738</v>
       </c>
       <c r="G42">
         <v>11.08737799795265</v>
       </c>
       <c r="H42">
-        <v>112.6231248577436</v>
+        <v>450.4924994309743</v>
       </c>
       <c r="I42">
         <v>37.84880750729634</v>
@@ -1646,19 +1646,19 @@
         </is>
       </c>
       <c r="D43">
-        <v>63.858167091012</v>
+        <v>319.29083545506</v>
       </c>
       <c r="E43">
         <v>17.15303846002212</v>
       </c>
       <c r="F43">
-        <v>63.78000001808007</v>
+        <v>318.9000000904004</v>
       </c>
       <c r="G43">
         <v>8.351375507783438</v>
       </c>
       <c r="H43">
-        <v>79.00291686256726</v>
+        <v>316.011667450269</v>
       </c>
       <c r="I43">
         <v>25.5188175170378</v>
@@ -1676,19 +1676,19 @@
         </is>
       </c>
       <c r="D44">
-        <v>70.97033350765705</v>
+        <v>354.8516675382853</v>
       </c>
       <c r="E44">
         <v>17.85082465296024</v>
       </c>
       <c r="F44">
-        <v>73.372833314538</v>
+        <v>366.86416657269</v>
       </c>
       <c r="G44">
         <v>9.376591298504289</v>
       </c>
       <c r="H44">
-        <v>91.98750051856041</v>
+        <v>367.9500020742416</v>
       </c>
       <c r="I44">
         <v>31.308717699971</v>
@@ -1706,19 +1706,19 @@
         </is>
       </c>
       <c r="D45">
-        <v>80.44983305136363</v>
+        <v>402.2491652568181</v>
       </c>
       <c r="E45">
         <v>20.33994884852555</v>
       </c>
       <c r="F45">
-        <v>84.02116658886274</v>
+        <v>420.1058329443137</v>
       </c>
       <c r="G45">
         <v>10.5173012101982</v>
       </c>
       <c r="H45">
-        <v>106.0495828688145</v>
+        <v>424.1983314752579</v>
       </c>
       <c r="I45">
         <v>35.80546651879463</v>
@@ -1736,19 +1736,19 @@
         </is>
       </c>
       <c r="D46">
-        <v>70.93599957327048</v>
+        <v>354.6799978663524</v>
       </c>
       <c r="E46">
         <v>19.35041777828446</v>
       </c>
       <c r="F46">
-        <v>70.25199990868569</v>
+        <v>351.2599995434284</v>
       </c>
       <c r="G46">
         <v>10.21263248032908</v>
       </c>
       <c r="H46">
-        <v>96.85041615366936</v>
+        <v>387.4016646146774</v>
       </c>
       <c r="I46">
         <v>34.50640552660255</v>
@@ -1766,19 +1766,19 @@
         </is>
       </c>
       <c r="D47">
-        <v>41.44466691017151</v>
+        <v>207.2233345508575</v>
       </c>
       <c r="E47">
         <v>11.43754583072002</v>
       </c>
       <c r="F47">
-        <v>36.50616651227077</v>
+        <v>182.5308325613538</v>
       </c>
       <c r="G47">
         <v>8.757267120602911</v>
       </c>
       <c r="H47">
-        <v>55.37375033646822</v>
+        <v>221.4950013458729</v>
       </c>
       <c r="I47">
         <v>21.73180759624068</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="D48">
-        <v>69.60566701094309</v>
+        <v>348.0283350547155</v>
       </c>
       <c r="E48">
         <v>9.838800576006708</v>
       </c>
       <c r="F48">
-        <v>70.19816662073136</v>
+        <v>350.9908331036568</v>
       </c>
       <c r="G48">
         <v>9.489860769198327</v>
       </c>
       <c r="H48">
-        <v>83.83874984582265</v>
+        <v>335.3549993832906</v>
       </c>
       <c r="I48">
         <v>39.48661010437997</v>
@@ -1826,19 +1826,19 @@
         </is>
       </c>
       <c r="D49">
-        <v>52.55833316644033</v>
+        <v>262.7916658322017</v>
       </c>
       <c r="E49">
         <v>13.3892596295512</v>
       </c>
       <c r="F49">
-        <v>45.13399986277024</v>
+        <v>225.6699993138512</v>
       </c>
       <c r="G49">
         <v>9.696451103159538</v>
       </c>
       <c r="H49">
-        <v>68.70062506198883</v>
+        <v>274.8025002479553</v>
       </c>
       <c r="I49">
         <v>26.09331342684366</v>
@@ -1856,19 +1856,19 @@
         </is>
       </c>
       <c r="D50">
-        <v>83.63533333142598</v>
+        <v>418.1766666571299</v>
       </c>
       <c r="E50">
         <v>9.114369915712926</v>
       </c>
       <c r="F50">
-        <v>81.73816622495652</v>
+        <v>408.6908311247826</v>
       </c>
       <c r="G50">
         <v>9.274687096826121</v>
       </c>
       <c r="H50">
-        <v>96.83333337306976</v>
+        <v>387.3333334922791</v>
       </c>
       <c r="I50">
         <v>45.12036669033276</v>
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="D51">
-        <v>78.45349967479706</v>
+        <v>392.2674983739853</v>
       </c>
       <c r="E51">
         <v>10.10017960119242</v>
       </c>
       <c r="F51">
-        <v>77.14566653966904</v>
+        <v>385.7283326983452</v>
       </c>
       <c r="G51">
         <v>8.749292373930006</v>
       </c>
       <c r="H51">
-        <v>92.51104194919269</v>
+        <v>370.0441677967708</v>
       </c>
       <c r="I51">
         <v>41.29241279543457</v>
@@ -1916,19 +1916,19 @@
         </is>
       </c>
       <c r="D52">
-        <v>59.44800012509028</v>
+        <v>297.2400006254514</v>
       </c>
       <c r="E52">
         <v>12.20635498082915</v>
       </c>
       <c r="F52">
-        <v>53.90400008161863</v>
+        <v>269.5200004080932</v>
       </c>
       <c r="G52">
         <v>6.996751184694878</v>
       </c>
       <c r="H52">
-        <v>75.6912506322066</v>
+        <v>302.7650025288264</v>
       </c>
       <c r="I52">
         <v>28.22621303101196</v>
@@ -1946,19 +1946,19 @@
         </is>
       </c>
       <c r="D53">
-        <v>75.91983281771343</v>
+        <v>379.5991640885671</v>
       </c>
       <c r="E53">
         <v>9.325477576040626</v>
       </c>
       <c r="F53">
-        <v>73.17566642363866</v>
+        <v>365.8783321181933</v>
       </c>
       <c r="G53">
         <v>6.905614508965036</v>
       </c>
       <c r="H53">
-        <v>89.64770925045013</v>
+        <v>358.5908370018005</v>
       </c>
       <c r="I53">
         <v>38.38374106902662</v>
@@ -1976,19 +1976,19 @@
         </is>
       </c>
       <c r="D54">
-        <v>64.62000012397766</v>
+        <v>323.1000006198883</v>
       </c>
       <c r="E54">
         <v>10.0270338408181</v>
       </c>
       <c r="F54">
-        <v>62.37900038560232</v>
+        <v>311.8950019280116</v>
       </c>
       <c r="G54">
         <v>5.878249474240797</v>
       </c>
       <c r="H54">
-        <v>81.61458352208138</v>
+        <v>326.4583340883255</v>
       </c>
       <c r="I54">
         <v>33.42469141876889</v>
@@ -2006,19 +2006,19 @@
         </is>
       </c>
       <c r="D55">
-        <v>52.69266630013784</v>
+        <v>263.4633315006892</v>
       </c>
       <c r="E55">
         <v>10.62312237338907</v>
       </c>
       <c r="F55">
-        <v>49.87633312145869</v>
+        <v>249.3816656072935</v>
       </c>
       <c r="G55">
         <v>6.87746551989792</v>
       </c>
       <c r="H55">
-        <v>68.93041701118152</v>
+        <v>275.7216680447261</v>
       </c>
       <c r="I55">
         <v>27.22707986456529</v>
@@ -2036,19 +2036,19 @@
         </is>
       </c>
       <c r="D56">
-        <v>59.16266703208288</v>
+        <v>295.8133351604144</v>
       </c>
       <c r="E56">
         <v>10.73248213733778</v>
       </c>
       <c r="F56">
-        <v>56.37233346104622</v>
+        <v>281.8616673052311</v>
       </c>
       <c r="G56">
         <v>6.427344859780215</v>
       </c>
       <c r="H56">
-        <v>76.1524996360143</v>
+        <v>304.6099985440572</v>
       </c>
       <c r="I56">
         <v>29.88511640414873</v>
@@ -2066,19 +2066,19 @@
         </is>
       </c>
       <c r="D57">
-        <v>44.87216697533926</v>
+        <v>224.3608348766963</v>
       </c>
       <c r="E57">
         <v>10.50451187948557</v>
       </c>
       <c r="F57">
-        <v>42.013166436553</v>
+        <v>210.065832182765</v>
       </c>
       <c r="G57">
         <v>8.59872568930623</v>
       </c>
       <c r="H57">
-        <v>59.69666718939941</v>
+        <v>238.7866687575976</v>
       </c>
       <c r="I57">
         <v>25.20060612194454</v>
@@ -2096,19 +2096,19 @@
         </is>
       </c>
       <c r="D58">
-        <v>41.88950001001358</v>
+        <v>209.4475000500679</v>
       </c>
       <c r="E58">
         <v>10.91704822667453</v>
       </c>
       <c r="F58">
-        <v>37.59783355096976</v>
+        <v>187.9891677548488</v>
       </c>
       <c r="G58">
         <v>8.932245644716504</v>
       </c>
       <c r="H58">
-        <v>55.48708300789197</v>
+        <v>221.9483320315679</v>
       </c>
       <c r="I58">
         <v>22.83307920225387</v>
@@ -2126,19 +2126,19 @@
         </is>
       </c>
       <c r="D59">
-        <v>74.82466659943263</v>
+        <v>374.1233329971632</v>
       </c>
       <c r="E59">
         <v>6.753483846309092</v>
       </c>
       <c r="F59">
-        <v>71.47399991750717</v>
+        <v>357.3699995875359</v>
       </c>
       <c r="G59">
         <v>7.632876293923367</v>
       </c>
       <c r="H59">
-        <v>93.48354134956995</v>
+        <v>373.9341653982798</v>
       </c>
       <c r="I59">
         <v>41.55208756568273</v>
@@ -2156,19 +2156,19 @@
         </is>
       </c>
       <c r="D60">
-        <v>84.21133319536845</v>
+        <v>421.0566659768423</v>
       </c>
       <c r="E60">
         <v>8.503704125785111</v>
       </c>
       <c r="F60">
-        <v>81.51699983676275</v>
+        <v>407.5849991838137</v>
       </c>
       <c r="G60">
         <v>8.198834146369697</v>
       </c>
       <c r="H60">
-        <v>99.48791632056236</v>
+        <v>397.9516652822495</v>
       </c>
       <c r="I60">
         <v>44.18933791651511</v>
@@ -2186,19 +2186,19 @@
         </is>
       </c>
       <c r="D61">
-        <v>80.83933339913686</v>
+        <v>404.1966669956843</v>
       </c>
       <c r="E61">
         <v>8.086198895594416</v>
       </c>
       <c r="F61">
-        <v>78.09133378664653</v>
+        <v>390.4566689332326</v>
       </c>
       <c r="G61">
         <v>7.704706753076154</v>
       </c>
       <c r="H61">
-        <v>98.27354129155476</v>
+        <v>393.0941651662191</v>
       </c>
       <c r="I61">
         <v>43.42576807600101</v>
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="D62">
-        <v>70.35533328155677</v>
+        <v>351.7766664077838</v>
       </c>
       <c r="E62">
         <v>11.04884624363994</v>
       </c>
       <c r="F62">
-        <v>66.08183349768321</v>
+        <v>330.4091674884161</v>
       </c>
       <c r="G62">
         <v>6.032551614985401</v>
       </c>
       <c r="H62">
-        <v>86.46791682640712</v>
+        <v>345.8716673056285</v>
       </c>
       <c r="I62">
         <v>34.17029022622733</v>
@@ -2246,19 +2246,19 @@
         </is>
       </c>
       <c r="D63">
-        <v>68.0081665356954</v>
+        <v>340.0408326784769</v>
       </c>
       <c r="E63">
         <v>8.368205786466621</v>
       </c>
       <c r="F63">
-        <v>64.94350023269654</v>
+        <v>324.7175011634827</v>
       </c>
       <c r="G63">
         <v>5.98488559547347</v>
       </c>
       <c r="H63">
-        <v>84.95562492807707</v>
+        <v>339.8224997123083</v>
       </c>
       <c r="I63">
         <v>36.38354624481391</v>
@@ -2276,19 +2276,19 @@
         </is>
       </c>
       <c r="D64">
-        <v>53.36599992116292</v>
+        <v>266.8299996058146</v>
       </c>
       <c r="E64">
         <v>6.565759575776115</v>
       </c>
       <c r="F64">
-        <v>52.5354998866717</v>
+        <v>262.6774994333585</v>
       </c>
       <c r="G64">
         <v>7.034444741478178</v>
       </c>
       <c r="H64">
-        <v>70.96354157725969</v>
+        <v>283.8541663090388</v>
       </c>
       <c r="I64">
         <v>30.7750591026033</v>
@@ -2306,19 +2306,19 @@
         </is>
       </c>
       <c r="D65">
-        <v>68.79183347423872</v>
+        <v>343.9591673711936</v>
       </c>
       <c r="E65">
         <v>8.982484775496921</v>
       </c>
       <c r="F65">
-        <v>65.4473331729571</v>
+        <v>327.2366658647855</v>
       </c>
       <c r="G65">
         <v>5.789877226759702</v>
       </c>
       <c r="H65">
-        <v>84.87312458455563</v>
+        <v>339.4924983382225</v>
       </c>
       <c r="I65">
         <v>37.03909214791184</v>
@@ -2336,19 +2336,19 @@
         </is>
       </c>
       <c r="D66">
-        <v>52.31450002193451</v>
+        <v>261.5725001096726</v>
       </c>
       <c r="E66">
         <v>6.407729254179526</v>
       </c>
       <c r="F66">
-        <v>53.99316631158193</v>
+        <v>269.9658315579097</v>
       </c>
       <c r="G66">
         <v>7.758566365705843</v>
       </c>
       <c r="H66">
-        <v>70.41541675726572</v>
+        <v>281.6616670290629</v>
       </c>
       <c r="I66">
         <v>27.64991144206209</v>
@@ -2366,19 +2366,19 @@
         </is>
       </c>
       <c r="D67">
-        <v>60.75916634996732</v>
+        <v>303.7958317498366</v>
       </c>
       <c r="E67">
         <v>19.68125815033343</v>
       </c>
       <c r="F67">
-        <v>59.19399988005559</v>
+        <v>295.9699994002779</v>
       </c>
       <c r="G67">
         <v>13.86866109660616</v>
       </c>
       <c r="H67">
-        <v>92.32541674748063</v>
+        <v>369.3016669899225</v>
       </c>
       <c r="I67">
         <v>32.39536519900562</v>
@@ -2396,19 +2396,19 @@
         </is>
       </c>
       <c r="D68">
-        <v>59.9591663479805</v>
+        <v>299.7958317399025</v>
       </c>
       <c r="E68">
         <v>19.42475095052399</v>
       </c>
       <c r="F68">
-        <v>58.42449991504351</v>
+        <v>292.1224995752176</v>
       </c>
       <c r="G68">
         <v>13.72441357756796</v>
       </c>
       <c r="H68">
-        <v>91.19895808274548</v>
+        <v>364.7958323309819</v>
       </c>
       <c r="I68">
         <v>32.21315267242734</v>
@@ -2426,19 +2426,19 @@
         </is>
       </c>
       <c r="D69">
-        <v>57.30033354957899</v>
+        <v>286.5016677478949</v>
       </c>
       <c r="E69">
         <v>18.73392893535525</v>
       </c>
       <c r="F69">
-        <v>56.05716671893994</v>
+        <v>280.2858335946997</v>
       </c>
       <c r="G69">
         <v>13.20638416712575</v>
       </c>
       <c r="H69">
-        <v>87.70791624238093</v>
+        <v>350.8316649695237</v>
       </c>
       <c r="I69">
         <v>31.35113101776227</v>
@@ -2456,19 +2456,19 @@
         </is>
       </c>
       <c r="D70">
-        <v>57.22766663233439</v>
+        <v>286.1383331616719</v>
       </c>
       <c r="E70">
         <v>18.51966532993729</v>
       </c>
       <c r="F70">
-        <v>55.68649995277325</v>
+        <v>278.4324997638663</v>
       </c>
       <c r="G70">
         <v>13.15646560090163</v>
       </c>
       <c r="H70">
-        <v>87.02020862450202</v>
+        <v>348.0808344980081</v>
       </c>
       <c r="I70">
         <v>31.14873397242561</v>
@@ -2486,19 +2486,19 @@
         </is>
       </c>
       <c r="D71">
-        <v>54.91299990812937</v>
+        <v>274.5649995406469</v>
       </c>
       <c r="E71">
         <v>17.73247234149756</v>
       </c>
       <c r="F71">
-        <v>53.37083318531514</v>
+        <v>266.8541659265757</v>
       </c>
       <c r="G71">
         <v>12.64087076299065</v>
       </c>
       <c r="H71">
-        <v>83.42145786434412</v>
+        <v>333.6858314573765</v>
       </c>
       <c r="I71">
         <v>30.07888682882276</v>
@@ -2516,19 +2516,19 @@
         </is>
       </c>
       <c r="D72">
-        <v>53.06216706236204</v>
+        <v>265.3108353118102</v>
       </c>
       <c r="E72">
         <v>17.26471527955999</v>
       </c>
       <c r="F72">
-        <v>51.79866680602233</v>
+        <v>258.9933340301117</v>
       </c>
       <c r="G72">
         <v>12.27984291824988</v>
       </c>
       <c r="H72">
-        <v>81.07895830521981</v>
+        <v>324.3158332208793</v>
       </c>
       <c r="I72">
         <v>29.40507815573426</v>
@@ -2546,19 +2546,19 @@
         </is>
       </c>
       <c r="D73">
-        <v>52.91383353074392</v>
+        <v>264.5691676537196</v>
       </c>
       <c r="E73">
         <v>17.0360914749315</v>
       </c>
       <c r="F73">
-        <v>51.37983314891656</v>
+        <v>256.8991657445828</v>
       </c>
       <c r="G73">
         <v>12.21281930158934</v>
       </c>
       <c r="H73">
-        <v>80.30458334833384</v>
+        <v>321.2183333933353</v>
       </c>
       <c r="I73">
         <v>29.17076081440489</v>
@@ -2576,19 +2576,19 @@
         </is>
       </c>
       <c r="D74">
-        <v>52.05699994961421</v>
+        <v>260.284999748071</v>
       </c>
       <c r="E74">
         <v>16.14329672584651</v>
       </c>
       <c r="F74">
-        <v>49.81916652023792</v>
+        <v>249.0958326011896</v>
       </c>
       <c r="G74">
         <v>12.00352014868138</v>
       </c>
       <c r="H74">
-        <v>77.60187441979846</v>
+        <v>310.4074976791939</v>
       </c>
       <c r="I74">
         <v>28.56890057038726</v>
@@ -2606,19 +2606,19 @@
         </is>
       </c>
       <c r="D75">
-        <v>49.28833323121071</v>
+        <v>246.4416661560535</v>
       </c>
       <c r="E75">
         <v>15.18411028764764</v>
       </c>
       <c r="F75">
-        <v>47.1410002892216</v>
+        <v>235.705001446108</v>
       </c>
       <c r="G75">
         <v>11.40004680190056</v>
       </c>
       <c r="H75">
-        <v>73.40791718413432</v>
+        <v>293.6316687365373</v>
       </c>
       <c r="I75">
         <v>27.27545339888975</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="D76">
-        <v>47.25149980982145</v>
+        <v>236.2574990491072</v>
       </c>
       <c r="E76">
         <v>14.31858328918864</v>
       </c>
       <c r="F76">
-        <v>44.9778329004844</v>
+        <v>224.889164502422</v>
       </c>
       <c r="G76">
         <v>10.95934829274184</v>
       </c>
       <c r="H76">
-        <v>70.00458311786254</v>
+        <v>280.0183324714502</v>
       </c>
       <c r="I76">
         <v>26.2693651829784</v>
@@ -2666,19 +2666,19 @@
         </is>
       </c>
       <c r="D77">
-        <v>106.9528330837687</v>
+        <v>534.7641654188434</v>
       </c>
       <c r="E77">
         <v>32.25302387952076</v>
       </c>
       <c r="F77">
-        <v>117.3371677597364</v>
+        <v>586.6858387986819</v>
       </c>
       <c r="G77">
         <v>15.5555182669367</v>
       </c>
       <c r="H77">
-        <v>135.6595830321312</v>
+        <v>542.6383321285248</v>
       </c>
       <c r="I77">
         <v>39.98211545248021</v>
@@ -2696,19 +2696,19 @@
         </is>
       </c>
       <c r="D78">
-        <v>122.224333020548</v>
+        <v>611.1216651027402</v>
       </c>
       <c r="E78">
         <v>38.58104431291069</v>
       </c>
       <c r="F78">
-        <v>133.6250006159147</v>
+        <v>668.1250030795733</v>
       </c>
       <c r="G78">
         <v>19.00536155122025</v>
       </c>
       <c r="H78">
-        <v>157.9712501565615</v>
+        <v>631.8850006262461</v>
       </c>
       <c r="I78">
         <v>48.12455806152673</v>
@@ -2726,19 +2726,19 @@
         </is>
       </c>
       <c r="D79">
-        <v>72.13866739670435</v>
+        <v>360.6933369835218</v>
       </c>
       <c r="E79">
         <v>20.9065113324464</v>
       </c>
       <c r="F79">
-        <v>74.2053335348765</v>
+        <v>371.0266676743825</v>
       </c>
       <c r="G79">
         <v>9.97733871742852</v>
       </c>
       <c r="H79">
-        <v>89.91166756550472</v>
+        <v>359.6466702620189</v>
       </c>
       <c r="I79">
         <v>31.83931483642493</v>

--- a/Results/Precipitation_transects_results.xlsx
+++ b/Results/Precipitation_transects_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,37 +370,52 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Name_new</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Alt</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CODIGO</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>ZONE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>sum_1985_1989</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>sd_1985_1989</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>sum_2000_2004</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>sd_2000_2004</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sum_2015_2018</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>sd_2015_2018</t>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>sum_2015_2019</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>sd_2015_2019</t>
         </is>
       </c>
     </row>
@@ -412,26 +427,39 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Pto de Navacerrada</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>1572.11</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74Nav</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D2">
-        <v>416.894164522489</v>
-      </c>
-      <c r="E2">
-        <v>21.50477359633982</v>
-      </c>
-      <c r="F2">
-        <v>432.3466653327147</v>
-      </c>
       <c r="G2">
-        <v>10.91698483926393</v>
+        <v>44.89166672279437</v>
       </c>
       <c r="H2">
-        <v>449.2241667906444</v>
+        <v>0.4758253462401699</v>
       </c>
       <c r="I2">
-        <v>37.55898536343714</v>
+        <v>46.32499970992406</v>
+      </c>
+      <c r="J2">
+        <v>0.3603336128088767</v>
+      </c>
+      <c r="K2">
+        <v>49.53333329637958</v>
+      </c>
+      <c r="L2">
+        <v>0.9450786789591593</v>
       </c>
     </row>
     <row r="3">
@@ -442,26 +470,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Valsaín II</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>1333.43</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>55Val</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D3">
-        <v>409.0775005420049</v>
-      </c>
-      <c r="E3">
-        <v>21.15809178574409</v>
-      </c>
-      <c r="F3">
-        <v>423.7600023448467</v>
-      </c>
       <c r="G3">
-        <v>10.69104904513443</v>
+        <v>50.08333359907071</v>
       </c>
       <c r="H3">
-        <v>439.9649989207586</v>
+        <v>0.4895080199126144</v>
       </c>
       <c r="I3">
-        <v>36.79933325785419</v>
+        <v>51.50833337008953</v>
+      </c>
+      <c r="J3">
+        <v>0.3696564858227666</v>
+      </c>
+      <c r="K3">
+        <v>55.10151523171049</v>
+      </c>
+      <c r="L3">
+        <v>0.7989378120410701</v>
       </c>
     </row>
     <row r="4">
@@ -472,26 +513,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Hoyocasero</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>1155.94</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>7Hoyo</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D4">
-        <v>347.3883315722147</v>
-      </c>
-      <c r="E4">
-        <v>18.11412995257586</v>
-      </c>
-      <c r="F4">
-        <v>360.4649995664756</v>
-      </c>
       <c r="G4">
-        <v>10.44247118279394</v>
+        <v>55.29166642328103</v>
       </c>
       <c r="H4">
-        <v>382.8316659530004</v>
+        <v>0.5279020419150359</v>
       </c>
       <c r="I4">
-        <v>37.31301186657388</v>
+        <v>56.25833324591319</v>
+      </c>
+      <c r="J4">
+        <v>0.359803152611075</v>
+      </c>
+      <c r="K4">
+        <v>60.23106002085137</v>
+      </c>
+      <c r="L4">
+        <v>0.7024549090214567</v>
       </c>
     </row>
     <row r="5">
@@ -502,26 +556,39 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Navacepeda de Tormes</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>1432.48</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10Navac</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D5">
-        <v>394.1499999091029</v>
-      </c>
-      <c r="E5">
-        <v>22.68084793688106</v>
-      </c>
-      <c r="F5">
-        <v>425.0741676688194</v>
-      </c>
       <c r="G5">
-        <v>12.05687619459006</v>
+        <v>46.76666683703661</v>
       </c>
       <c r="H5">
-        <v>438.6024988691012</v>
+        <v>0.4967813809869548</v>
       </c>
       <c r="I5">
-        <v>39.59226736433386</v>
+        <v>47.53333346297344</v>
+      </c>
+      <c r="J5">
+        <v>0.3649295449625468</v>
+      </c>
+      <c r="K5">
+        <v>50.82348497073646</v>
+      </c>
+      <c r="L5">
+        <v>0.79633817037402</v>
       </c>
     </row>
     <row r="6">
@@ -532,26 +599,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Navalguijo</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>1250.05</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5Ngui</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D6">
-        <v>396.7216689611475</v>
-      </c>
-      <c r="E6">
-        <v>22.17230030489322</v>
-      </c>
-      <c r="F6">
-        <v>427.8366631368796</v>
-      </c>
       <c r="G6">
-        <v>15.20708169283073</v>
+        <v>54.29166666666667</v>
       </c>
       <c r="H6">
-        <v>440.3741678595543</v>
+        <v>0.5056280290585402</v>
       </c>
       <c r="I6">
-        <v>42.99571884959329</v>
+        <v>54.92500001688799</v>
+      </c>
+      <c r="J6">
+        <v>0.3374433695289634</v>
+      </c>
+      <c r="K6">
+        <v>58.5083335276806</v>
+      </c>
+      <c r="L6">
+        <v>0.6958558135333091</v>
       </c>
     </row>
     <row r="7">
@@ -562,26 +642,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Navalperal de Tormes</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>1316.04</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11Naval</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D7">
-        <v>418.425833898286</v>
-      </c>
-      <c r="E7">
-        <v>24.52834791888431</v>
-      </c>
-      <c r="F7">
-        <v>451.737499276797</v>
-      </c>
       <c r="G7">
-        <v>13.1910358388992</v>
+        <v>49.21666688472033</v>
       </c>
       <c r="H7">
-        <v>464.4991678595543</v>
+        <v>0.5010891535756762</v>
       </c>
       <c r="I7">
-        <v>42.43455729012791</v>
+        <v>49.96666667455187</v>
+      </c>
+      <c r="J7">
+        <v>0.3576737606383336</v>
+      </c>
+      <c r="K7">
+        <v>53.4386367057309</v>
+      </c>
+      <c r="L7">
+        <v>0.7561523421871378</v>
       </c>
     </row>
     <row r="8">
@@ -592,26 +685,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Navarredonda de Gredos</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>1498.21</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>13Navar</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D8">
-        <v>447.3908328637481</v>
-      </c>
-      <c r="E8">
-        <v>26.49710749425923</v>
-      </c>
-      <c r="F8">
-        <v>481.2883336345355</v>
-      </c>
       <c r="G8">
-        <v>12.7072718668874</v>
+        <v>42.78333315501611</v>
       </c>
       <c r="H8">
-        <v>475.3300020694733</v>
+        <v>0.4878879633998017</v>
       </c>
       <c r="I8">
-        <v>38.79063399774159</v>
+        <v>43.666666772527</v>
+      </c>
+      <c r="J8">
+        <v>0.3531112020822858</v>
+      </c>
+      <c r="K8">
+        <v>46.57045435950612</v>
+      </c>
+      <c r="L8">
+        <v>0.9286264767490172</v>
       </c>
     </row>
     <row r="9">
@@ -622,26 +728,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>Puerto de la Peña Negra</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>1922.51</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>15Pneg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D9">
-        <v>482.996667911609</v>
-      </c>
-      <c r="E9">
-        <v>28.00935116873982</v>
-      </c>
-      <c r="F9">
-        <v>511.6750021775563</v>
-      </c>
       <c r="G9">
-        <v>15.52556002941168</v>
+        <v>31.47499970439822</v>
       </c>
       <c r="H9">
-        <v>559.427503267924</v>
+        <v>0.4927459473175773</v>
       </c>
       <c r="I9">
-        <v>55.38077771428655</v>
+        <v>32.15833332793167</v>
+      </c>
+      <c r="J9">
+        <v>0.3727432329125389</v>
+      </c>
+      <c r="K9">
+        <v>34.2810604028178</v>
+      </c>
+      <c r="L9">
+        <v>1.180126797623277</v>
       </c>
     </row>
     <row r="10">
@@ -652,26 +771,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>La Plataforma de Gredos</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>1860.07</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>14Plat</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D10">
-        <v>608.1641702701649</v>
-      </c>
-      <c r="E10">
-        <v>38.3699341425032</v>
-      </c>
-      <c r="F10">
-        <v>665.1375001072884</v>
-      </c>
       <c r="G10">
-        <v>18.79968119295051</v>
+        <v>32.48333343025297</v>
       </c>
       <c r="H10">
-        <v>627.4533385435741</v>
+        <v>0.4746929045262392</v>
       </c>
       <c r="I10">
-        <v>47.44968475585932</v>
+        <v>33.15000019129366</v>
+      </c>
+      <c r="J10">
+        <v>0.3453359535369213</v>
+      </c>
+      <c r="K10">
+        <v>34.99318194773161</v>
+      </c>
+      <c r="L10">
+        <v>1.321545830638325</v>
       </c>
     </row>
     <row r="11">
@@ -682,26 +814,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Puerto del Pico</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>1400.49</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12Pico</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D11">
-        <v>469.8050010676186</v>
-      </c>
-      <c r="E11">
-        <v>27.48062551409774</v>
-      </c>
-      <c r="F11">
-        <v>508.2724992533525</v>
-      </c>
       <c r="G11">
-        <v>13.70870605738333</v>
+        <v>49.66666637019564</v>
       </c>
       <c r="H11">
-        <v>480.6550003290176</v>
+        <v>0.4956406607228057</v>
       </c>
       <c r="I11">
-        <v>39.01045504103509</v>
+        <v>50.58333344850689</v>
+      </c>
+      <c r="J11">
+        <v>0.3474610183048486</v>
+      </c>
+      <c r="K11">
+        <v>53.78106045632651</v>
+      </c>
+      <c r="L11">
+        <v>0.8430889661205501</v>
       </c>
     </row>
     <row r="12">
@@ -712,26 +857,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>El Hornillo</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>781.46</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3Horn</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D12">
-        <v>456.9341653337081</v>
-      </c>
-      <c r="E12">
-        <v>25.46734827097208</v>
-      </c>
-      <c r="F12">
-        <v>507.4875008563201</v>
-      </c>
       <c r="G12">
-        <v>13.57484232791044</v>
+        <v>66.26666633288066</v>
       </c>
       <c r="H12">
-        <v>462.1174984375635</v>
+        <v>0.5453591605623736</v>
       </c>
       <c r="I12">
-        <v>34.55380883045535</v>
+        <v>67.16666654745738</v>
+      </c>
+      <c r="J12">
+        <v>0.3323945028349608</v>
+      </c>
+      <c r="K12">
+        <v>71.31439364678931</v>
+      </c>
+      <c r="L12">
+        <v>0.6663273789774303</v>
       </c>
     </row>
     <row r="13">
@@ -742,26 +900,39 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>Candeleda</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>685.17</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2Cand</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D13">
-        <v>446.9716646199425</v>
-      </c>
-      <c r="E13">
-        <v>23.03402031458144</v>
-      </c>
-      <c r="F13">
-        <v>507.0108328809341</v>
-      </c>
       <c r="G13">
-        <v>14.6447675446471</v>
+        <v>68.14166671037674</v>
       </c>
       <c r="H13">
-        <v>449.5850014487903</v>
+        <v>0.5730825721042728</v>
       </c>
       <c r="I13">
-        <v>33.55389000585284</v>
+        <v>68.87499992052713</v>
+      </c>
+      <c r="J13">
+        <v>0.3383477155736309</v>
+      </c>
+      <c r="K13">
+        <v>72.78106077873346</v>
+      </c>
+      <c r="L13">
+        <v>0.6345536349833347</v>
       </c>
     </row>
     <row r="14">
@@ -772,26 +943,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Cerro del Aguila</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>397.52</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1Agui</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D14">
-        <v>369.5508350022137</v>
-      </c>
-      <c r="E14">
-        <v>19.50802683757887</v>
-      </c>
-      <c r="F14">
-        <v>414.4466654012601</v>
-      </c>
       <c r="G14">
-        <v>11.42870189930475</v>
+        <v>81.45000008742014</v>
       </c>
       <c r="H14">
-        <v>357.3283312320709</v>
+        <v>0.632219371260468</v>
       </c>
       <c r="I14">
-        <v>25.74483877834868</v>
+        <v>82.28333298365276</v>
+      </c>
+      <c r="J14">
+        <v>0.3452756779899969</v>
+      </c>
+      <c r="K14">
+        <v>86.74924206372464</v>
+      </c>
+      <c r="L14">
+        <v>0.676427254505967</v>
       </c>
     </row>
     <row r="15">
@@ -802,26 +986,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>Collado de la Centenera</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>1344.84</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>4Cent</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D15">
-        <v>484.1074962764978</v>
-      </c>
-      <c r="E15">
-        <v>27.12716448729753</v>
-      </c>
-      <c r="F15">
-        <v>533.1700002749761</v>
-      </c>
       <c r="G15">
-        <v>14.15907540958318</v>
+        <v>50.88333330551783</v>
       </c>
       <c r="H15">
-        <v>495.2974984645844</v>
+        <v>0.4995624058557152</v>
       </c>
       <c r="I15">
-        <v>38.69963737197764</v>
+        <v>51.80833335965872</v>
+      </c>
+      <c r="J15">
+        <v>0.3328955664831668</v>
+      </c>
+      <c r="K15">
+        <v>55.02651524498607</v>
+      </c>
+      <c r="L15">
+        <v>0.8260812066866157</v>
       </c>
     </row>
     <row r="16">
@@ -832,26 +1029,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>Mingo Fernando</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>1293.63</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9Mfer</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D16">
-        <v>550.6233327314258</v>
-      </c>
-      <c r="E16">
-        <v>33.0834547176886</v>
-      </c>
-      <c r="F16">
-        <v>605.0508373181025</v>
-      </c>
       <c r="G16">
-        <v>16.12737329953461</v>
+        <v>55.07500013709068</v>
       </c>
       <c r="H16">
-        <v>553.9950029055277</v>
+        <v>0.5117847405124354</v>
       </c>
       <c r="I16">
-        <v>40.08977944584751</v>
+        <v>55.92500020066898</v>
+      </c>
+      <c r="J16">
+        <v>0.3338224969706998</v>
+      </c>
+      <c r="K16">
+        <v>59.34848467689572</v>
+      </c>
+      <c r="L16">
+        <v>0.7431156077993467</v>
       </c>
     </row>
     <row r="17">
@@ -862,26 +1072,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Soto de El Arenal</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>1229.8</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6Aren</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D17">
-        <v>498.8958343813817</v>
-      </c>
-      <c r="E17">
-        <v>29.05337269469311</v>
-      </c>
-      <c r="F17">
-        <v>546.6366666853428</v>
-      </c>
       <c r="G17">
-        <v>14.44215977217282</v>
+        <v>51.15833331892888</v>
       </c>
       <c r="H17">
-        <v>509.9233314593633</v>
+        <v>0.5027148946897218</v>
       </c>
       <c r="I17">
-        <v>39.2718165531144</v>
+        <v>52.11666642626127</v>
+      </c>
+      <c r="J17">
+        <v>0.336206398030093</v>
+      </c>
+      <c r="K17">
+        <v>55.34393940459599</v>
+      </c>
+      <c r="L17">
+        <v>0.7949893243981613</v>
       </c>
     </row>
     <row r="18">
@@ -892,26 +1115,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>Arroyo Pto. Morcuera</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>1729.77</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91Arr</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D18">
-        <v>422.1650005728006</v>
-      </c>
-      <c r="E18">
-        <v>23.22396293042691</v>
-      </c>
-      <c r="F18">
-        <v>412.2333331008752</v>
-      </c>
       <c r="G18">
-        <v>12.35823622862641</v>
+        <v>33.99999990624686</v>
       </c>
       <c r="H18">
-        <v>451.4666657447815</v>
+        <v>0.4826503897691934</v>
       </c>
       <c r="I18">
-        <v>40.12634807607992</v>
+        <v>35.50833354393642</v>
+      </c>
+      <c r="J18">
+        <v>0.3562146708540352</v>
+      </c>
+      <c r="K18">
+        <v>37.91212138192108</v>
+      </c>
+      <c r="L18">
+        <v>1.313577951543227</v>
       </c>
     </row>
     <row r="19">
@@ -922,26 +1158,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>Moralzarzal</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>928.38</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14Mor</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D19">
-        <v>324.4308325151603</v>
-      </c>
-      <c r="E19">
-        <v>17.36691849972391</v>
-      </c>
-      <c r="F19">
-        <v>329.710832203428</v>
-      </c>
       <c r="G19">
-        <v>8.564371441163667</v>
+        <v>65.15833306312561</v>
       </c>
       <c r="H19">
-        <v>314.8941672643026</v>
+        <v>0.5080053440822603</v>
       </c>
       <c r="I19">
-        <v>26.26848042855758</v>
+        <v>66.49999972184499</v>
+      </c>
+      <c r="J19">
+        <v>0.3775836883779877</v>
+      </c>
+      <c r="K19">
+        <v>71.05757587425636</v>
+      </c>
+      <c r="L19">
+        <v>0.6250733618468204</v>
       </c>
     </row>
     <row r="20">
@@ -952,26 +1201,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>Puerto de Fuenfría</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>1800.24</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95Fue</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D20">
-        <v>469.4650001823902</v>
-      </c>
-      <c r="E20">
-        <v>24.3102057558821</v>
-      </c>
-      <c r="F20">
-        <v>491.1033329864343</v>
-      </c>
       <c r="G20">
-        <v>12.11577971889613</v>
+        <v>35.79166677594185</v>
       </c>
       <c r="H20">
-        <v>500.6749981244406</v>
+        <v>0.4678927153909356</v>
       </c>
       <c r="I20">
-        <v>41.68491675948401</v>
+        <v>37.11666682207336</v>
+      </c>
+      <c r="J20">
+        <v>0.351504799115868</v>
+      </c>
+      <c r="K20">
+        <v>39.79545466963089</v>
+      </c>
+      <c r="L20">
+        <v>1.165973692406142</v>
       </c>
     </row>
     <row r="21">
@@ -982,26 +1244,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>Valsaín I</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>1433.39</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>62Val</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D21">
-        <v>424.821665853262</v>
-      </c>
-      <c r="E21">
-        <v>22.02671799863623</v>
-      </c>
-      <c r="F21">
-        <v>440.424170345068</v>
-      </c>
       <c r="G21">
-        <v>11.08146756295991</v>
+        <v>45.79166614760955</v>
       </c>
       <c r="H21">
-        <v>455.8741648197174</v>
+        <v>0.480559585103594</v>
       </c>
       <c r="I21">
-        <v>38.03217741788237</v>
+        <v>47.20833326876164</v>
+      </c>
+      <c r="J21">
+        <v>0.3592526341639393</v>
+      </c>
+      <c r="K21">
+        <v>50.4795454968275</v>
+      </c>
+      <c r="L21">
+        <v>0.9215958337071916</v>
       </c>
     </row>
     <row r="22">
@@ -1012,26 +1287,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>La Granja - Pto Navacerrada</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>1192.58</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>40Gra</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D22">
-        <v>349.2383328974247</v>
-      </c>
-      <c r="E22">
-        <v>17.18188393396649</v>
-      </c>
-      <c r="F22">
-        <v>362.4891660213471</v>
-      </c>
       <c r="G22">
-        <v>9.216656302900551</v>
+        <v>55.02500001589457</v>
       </c>
       <c r="H22">
-        <v>382.3108350038528</v>
+        <v>0.4977589079796341</v>
       </c>
       <c r="I22">
-        <v>32.96717799232379</v>
+        <v>56.54166665673256</v>
+      </c>
+      <c r="J22">
+        <v>0.3806062995101777</v>
+      </c>
+      <c r="K22">
+        <v>60.42575739278938</v>
+      </c>
+      <c r="L22">
+        <v>0.6910851323975321</v>
       </c>
     </row>
     <row r="23">
@@ -1042,26 +1330,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>Embalse del Pontón</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>1126.31</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>32Emb</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D23">
-        <v>325.4116655687491</v>
-      </c>
-      <c r="E23">
-        <v>14.38863457238865</v>
-      </c>
-      <c r="F23">
-        <v>341.0658333798249</v>
-      </c>
       <c r="G23">
-        <v>8.741223509863188</v>
+        <v>57.51666676998138</v>
       </c>
       <c r="H23">
-        <v>366.5633320013682</v>
+        <v>0.5126727236467268</v>
       </c>
       <c r="I23">
-        <v>32.97250763870474</v>
+        <v>59.06666685144107</v>
+      </c>
+      <c r="J23">
+        <v>0.3792170389023569</v>
+      </c>
+      <c r="K23">
+        <v>63.08409075664751</v>
+      </c>
+      <c r="L23">
+        <v>0.6465209448607865</v>
       </c>
     </row>
     <row r="24">
@@ -1072,26 +1373,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>La Fonda Real</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>1314.66</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>52Fon</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D24">
-        <v>361.317498366038</v>
-      </c>
-      <c r="E24">
-        <v>18.1732682869225</v>
-      </c>
-      <c r="F24">
-        <v>375.6791661779085</v>
-      </c>
       <c r="G24">
-        <v>9.568140561326723</v>
+        <v>51.10000027467807</v>
       </c>
       <c r="H24">
-        <v>376.438334941864</v>
+        <v>0.470873842611464</v>
       </c>
       <c r="I24">
-        <v>32.11476609812611</v>
+        <v>52.42500023047129</v>
+      </c>
+      <c r="J24">
+        <v>0.368668640471548</v>
+      </c>
+      <c r="K24">
+        <v>56.19545459295765</v>
+      </c>
+      <c r="L24">
+        <v>0.8032103268448116</v>
       </c>
     </row>
     <row r="25">
@@ -1102,26 +1416,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>Las Vueltas de la Barranca</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>1437.52</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>63Vue</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D25">
-        <v>398.0424962888162</v>
-      </c>
-      <c r="E25">
-        <v>20.07757377759592</v>
-      </c>
-      <c r="F25">
-        <v>413.2408343553543</v>
-      </c>
       <c r="G25">
-        <v>10.45329589457907</v>
+        <v>47.225000020427</v>
       </c>
       <c r="H25">
-        <v>421.0974998871486</v>
+        <v>0.4764087841858625</v>
       </c>
       <c r="I25">
-        <v>35.66680286199521</v>
+        <v>48.59999992698431</v>
+      </c>
+      <c r="J25">
+        <v>0.3625048871437386</v>
+      </c>
+      <c r="K25">
+        <v>52.10681828562961</v>
+      </c>
+      <c r="L25">
+        <v>0.8774315839110742</v>
       </c>
     </row>
     <row r="26">
@@ -1132,26 +1459,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>La Bola del Mundo</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>2252.38</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>122Bol</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D26">
-        <v>459.5741641819477</v>
-      </c>
-      <c r="E26">
-        <v>24.07419429191417</v>
-      </c>
-      <c r="F26">
-        <v>475.4149986008803</v>
-      </c>
       <c r="G26">
-        <v>12.07709510476162</v>
+        <v>23.34999989469846</v>
       </c>
       <c r="H26">
-        <v>494.9124989112219</v>
+        <v>0.4493281811497384</v>
       </c>
       <c r="I26">
-        <v>41.074976195862</v>
+        <v>24.68333329260349</v>
+      </c>
+      <c r="J26">
+        <v>0.3514158321793197</v>
+      </c>
+      <c r="K26">
+        <v>26.39696976373141</v>
+      </c>
+      <c r="L26">
+        <v>1.608815601512773</v>
       </c>
     </row>
     <row r="27">
@@ -1162,26 +1502,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>Fuente de la Campanilla</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>1650.41</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81Fue</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D27">
-        <v>434.5666678845882</v>
-      </c>
-      <c r="E27">
-        <v>22.38083821598005</v>
-      </c>
-      <c r="F27">
-        <v>450.6341672639052</v>
-      </c>
       <c r="G27">
-        <v>11.39007673494221</v>
+        <v>38.08333310578018</v>
       </c>
       <c r="H27">
-        <v>464.1816659371058</v>
+        <v>0.4616170179158758</v>
       </c>
       <c r="I27">
-        <v>38.86766693529815</v>
+        <v>39.45000016192595</v>
+      </c>
+      <c r="J27">
+        <v>0.3587885849057497</v>
+      </c>
+      <c r="K27">
+        <v>42.34469719730656</v>
+      </c>
+      <c r="L27">
+        <v>1.116180666980954</v>
       </c>
     </row>
     <row r="28">
@@ -1192,26 +1545,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>Cerro Piñonero</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>1488.99</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68Pin</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D28">
-        <v>356.1800004442533</v>
-      </c>
-      <c r="E28">
-        <v>20.61501338558866</v>
-      </c>
-      <c r="F28">
-        <v>365.6324985225995</v>
-      </c>
       <c r="G28">
-        <v>9.851331766369357</v>
+        <v>46.5416669761762</v>
       </c>
       <c r="H28">
-        <v>353.2716685334842</v>
+        <v>0.4852332742990242</v>
       </c>
       <c r="I28">
-        <v>31.12041789006353</v>
+        <v>47.7500002409021</v>
+      </c>
+      <c r="J28">
+        <v>0.365813400058194</v>
+      </c>
+      <c r="K28">
+        <v>51.06666661031319</v>
+      </c>
+      <c r="L28">
+        <v>0.9342369166011422</v>
       </c>
     </row>
     <row r="29">
@@ -1222,26 +1588,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>Mirador-Cabeza Lijar</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>1800.05</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96Cab</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D29">
-        <v>377.9716687649488</v>
-      </c>
-      <c r="E29">
-        <v>22.30943677650243</v>
-      </c>
-      <c r="F29">
-        <v>389.5016673902671</v>
-      </c>
       <c r="G29">
-        <v>10.57181024918149</v>
+        <v>39.43333304176728</v>
       </c>
       <c r="H29">
-        <v>377.8083337942759</v>
+        <v>0.4734111117602822</v>
       </c>
       <c r="I29">
-        <v>33.83702986392303</v>
+        <v>40.59166640633097</v>
+      </c>
+      <c r="J29">
+        <v>0.3692804446841389</v>
+      </c>
+      <c r="K29">
+        <v>43.41287843928193</v>
+      </c>
+      <c r="L29">
+        <v>1.140345551070521</v>
       </c>
     </row>
     <row r="30">
@@ -1252,26 +1631,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>Collado de la Mina</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>1707.94</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89Col</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D30">
-        <v>377.9716687649488</v>
-      </c>
-      <c r="E30">
-        <v>22.30943677650243</v>
-      </c>
-      <c r="F30">
-        <v>389.5016673902671</v>
-      </c>
       <c r="G30">
-        <v>10.57181024918149</v>
+        <v>39.43333304176728</v>
       </c>
       <c r="H30">
-        <v>377.8083337942759</v>
+        <v>0.4734111117602822</v>
       </c>
       <c r="I30">
-        <v>33.83702986392303</v>
+        <v>40.59166640633097</v>
+      </c>
+      <c r="J30">
+        <v>0.3692804446841389</v>
+      </c>
+      <c r="K30">
+        <v>43.41287843928193</v>
+      </c>
+      <c r="L30">
+        <v>1.140345551070521</v>
       </c>
     </row>
     <row r="31">
@@ -1282,26 +1674,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>Rascafría/Raso de la Cierva</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>1416.29</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>61Ras</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D31">
-        <v>347.7333343128364</v>
-      </c>
-      <c r="E31">
-        <v>15.63929061055785</v>
-      </c>
-      <c r="F31">
-        <v>353.2525006532669</v>
-      </c>
       <c r="G31">
-        <v>10.13236682057787</v>
+        <v>45.5249998519818</v>
       </c>
       <c r="H31">
-        <v>400.8800015052159</v>
+        <v>0.5101265210964341</v>
       </c>
       <c r="I31">
-        <v>39.19062352371197</v>
+        <v>47.17500000447035</v>
+      </c>
+      <c r="J31">
+        <v>0.3645488637274491</v>
+      </c>
+      <c r="K31">
+        <v>50.5719698865644</v>
+      </c>
+      <c r="L31">
+        <v>0.8591240447448425</v>
       </c>
     </row>
     <row r="32">
@@ -1312,26 +1717,39 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>Raso de la Cierva</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>1696.99</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88Ras</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D32">
-        <v>369.1616673221191</v>
-      </c>
-      <c r="E32">
-        <v>16.42310825722618</v>
-      </c>
-      <c r="F32">
-        <v>377.0866668224335</v>
-      </c>
       <c r="G32">
-        <v>10.71429027331313</v>
+        <v>39.54166659464439</v>
       </c>
       <c r="H32">
-        <v>427.5733335415522</v>
+        <v>0.4911014113390277</v>
       </c>
       <c r="I32">
-        <v>41.65811058730762</v>
+        <v>41.19166669653107</v>
+      </c>
+      <c r="J32">
+        <v>0.3570032992287077</v>
+      </c>
+      <c r="K32">
+        <v>44.10227254955944</v>
+      </c>
+      <c r="L32">
+        <v>1.012952255515962</v>
       </c>
     </row>
     <row r="33">
@@ -1342,26 +1760,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>Las Calderuelas</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>1879.29</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>102Cal</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D33">
-        <v>396.3166678299506</v>
-      </c>
-      <c r="E33">
-        <v>16.54627982607586</v>
-      </c>
-      <c r="F33">
-        <v>408.9600019454956</v>
-      </c>
       <c r="G33">
-        <v>11.59733697178972</v>
+        <v>31.06666658911854</v>
       </c>
       <c r="H33">
-        <v>464.9691650072734</v>
+        <v>0.4895647456263645</v>
       </c>
       <c r="I33">
-        <v>46.06850024947091</v>
+        <v>32.60000005364418</v>
+      </c>
+      <c r="J33">
+        <v>0.359233370806067</v>
+      </c>
+      <c r="K33">
+        <v>34.91060626710003</v>
+      </c>
+      <c r="L33">
+        <v>1.283241549381603</v>
       </c>
     </row>
     <row r="34">
@@ -1372,26 +1803,39 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>La Flecha</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>2037.89</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>112Fle</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D34">
-        <v>402.5691654086113</v>
-      </c>
-      <c r="E34">
-        <v>16.61841345818588</v>
-      </c>
-      <c r="F34">
-        <v>417.355001270771</v>
-      </c>
       <c r="G34">
-        <v>11.74876271457169</v>
+        <v>28.5249998504296</v>
       </c>
       <c r="H34">
-        <v>473.973335425059</v>
+        <v>0.4906982496636498</v>
       </c>
       <c r="I34">
-        <v>46.81878350891255</v>
+        <v>30.05000011933347</v>
+      </c>
+      <c r="J34">
+        <v>0.3601408343774598</v>
+      </c>
+      <c r="K34">
+        <v>32.13409108214194</v>
+      </c>
+      <c r="L34">
+        <v>1.373948511329177</v>
       </c>
     </row>
     <row r="35">
@@ -1402,26 +1846,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>Ermita de Santa Ana</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>1208.42</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>41Erm</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D35">
-        <v>278.4691661596298</v>
-      </c>
-      <c r="E35">
-        <v>14.10943467280121</v>
-      </c>
-      <c r="F35">
-        <v>273.1391659875711</v>
-      </c>
       <c r="G35">
-        <v>8.33868200353168</v>
+        <v>53.80000025033951</v>
       </c>
       <c r="H35">
-        <v>306.399166226387</v>
+        <v>0.5162431109790969</v>
       </c>
       <c r="I35">
-        <v>29.33074589310526</v>
+        <v>55.48333324988683</v>
+      </c>
+      <c r="J35">
+        <v>0.3644630008026101</v>
+      </c>
+      <c r="K35">
+        <v>59.33712099537705</v>
+      </c>
+      <c r="L35">
+        <v>0.7191111043771689</v>
       </c>
     </row>
     <row r="36">
@@ -1432,26 +1889,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>Collado Najarra</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>2000</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>108Naj</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D36">
-        <v>431.0533344099919</v>
-      </c>
-      <c r="E36">
-        <v>23.67446147069953</v>
-      </c>
-      <c r="F36">
-        <v>422.708334038655</v>
-      </c>
       <c r="G36">
-        <v>12.49642603586921</v>
+        <v>32.68333361794552</v>
       </c>
       <c r="H36">
-        <v>461.5841641426086</v>
+        <v>0.4835703446751472</v>
       </c>
       <c r="I36">
-        <v>40.54410983178463</v>
+        <v>34.1583332112059</v>
+      </c>
+      <c r="J36">
+        <v>0.3489767282759508</v>
+      </c>
+      <c r="K36">
+        <v>36.54015133981452</v>
+      </c>
+      <c r="L36">
+        <v>1.332583995725258</v>
       </c>
     </row>
     <row r="37">
@@ -1462,26 +1932,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>Collado Valdemartín</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>2153.63</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>117Val</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D37">
-        <v>473.6041689018408</v>
-      </c>
-      <c r="E37">
-        <v>25.31406909422314</v>
-      </c>
-      <c r="F37">
-        <v>485.5825010538101</v>
-      </c>
       <c r="G37">
-        <v>12.61520329176882</v>
+        <v>26.44166641123593</v>
       </c>
       <c r="H37">
-        <v>511.8599979877472</v>
+        <v>0.4519095381812321</v>
       </c>
       <c r="I37">
-        <v>42.49444164566215</v>
+        <v>27.80833350867033</v>
+      </c>
+      <c r="J37">
+        <v>0.3460390740836182</v>
+      </c>
+      <c r="K37">
+        <v>29.7318183220923</v>
+      </c>
+      <c r="L37">
+        <v>1.513328788737081</v>
       </c>
     </row>
     <row r="38">
@@ -1492,26 +1975,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>Arroyo de la Angostura II</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>1386.2</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>58Ang</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D38">
-        <v>423.3491657525301</v>
-      </c>
-      <c r="E38">
-        <v>22.61111490663697</v>
-      </c>
-      <c r="F38">
-        <v>425.8316669861476</v>
-      </c>
       <c r="G38">
-        <v>11.84850290391969</v>
+        <v>44.73333339144786</v>
       </c>
       <c r="H38">
-        <v>465.155831694603</v>
+        <v>0.4905920129791502</v>
       </c>
       <c r="I38">
-        <v>40.53759523597874</v>
+        <v>46.27500002582868</v>
+      </c>
+      <c r="J38">
+        <v>0.3600058876753761</v>
+      </c>
+      <c r="K38">
+        <v>49.5151514372873</v>
+      </c>
+      <c r="L38">
+        <v>0.9325577884823281</v>
       </c>
     </row>
     <row r="39">
@@ -1522,26 +2018,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>Pista Mantenimiento Valdesquí</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>2035.69</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>110Val</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D39">
-        <v>457.8291671772798</v>
-      </c>
-      <c r="E39">
-        <v>24.06752889008536</v>
-      </c>
-      <c r="F39">
-        <v>471.593333085378</v>
-      </c>
       <c r="G39">
-        <v>12.19880035669676</v>
+        <v>29.60833342870076</v>
       </c>
       <c r="H39">
-        <v>498.3483338753383</v>
+        <v>0.4609997843887038</v>
       </c>
       <c r="I39">
-        <v>41.62588362963005</v>
+        <v>31.01666642383983</v>
+      </c>
+      <c r="J39">
+        <v>0.3580715806893535</v>
+      </c>
+      <c r="K39">
+        <v>33.11893920645569</v>
+      </c>
+      <c r="L39">
+        <v>1.413183464003717</v>
       </c>
     </row>
     <row r="40">
@@ -1552,26 +2061,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>Pradera de Majalasna</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>1843.03</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97Maj</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D40">
-        <v>451.2333347300689</v>
-      </c>
-      <c r="E40">
-        <v>23.26639679194987</v>
-      </c>
-      <c r="F40">
-        <v>471.175831447045</v>
-      </c>
       <c r="G40">
-        <v>11.72778030677579</v>
+        <v>33.79999973531812</v>
       </c>
       <c r="H40">
-        <v>478.6541642745336</v>
+        <v>0.4522475261894901</v>
       </c>
       <c r="I40">
-        <v>39.92993873070767</v>
+        <v>35.11666671279818</v>
+      </c>
+      <c r="J40">
+        <v>0.3559708235734882</v>
+      </c>
+      <c r="K40">
+        <v>37.61212131228636</v>
+      </c>
+      <c r="L40">
+        <v>1.23481114746643</v>
       </c>
     </row>
     <row r="41">
@@ -1582,26 +2104,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>Alto del León</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>1534.69</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>71Leo</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D41">
-        <v>334.9408326049646</v>
-      </c>
-      <c r="E41">
-        <v>18.61729735346677</v>
-      </c>
-      <c r="F41">
-        <v>347.3133345047633</v>
-      </c>
       <c r="G41">
-        <v>9.122479424454189</v>
+        <v>45.7416666423281</v>
       </c>
       <c r="H41">
-        <v>340.7791685064634</v>
+        <v>0.4809350960847564</v>
       </c>
       <c r="I41">
-        <v>29.98847118427839</v>
+        <v>46.99166673825433</v>
+      </c>
+      <c r="J41">
+        <v>0.3787497435026809</v>
+      </c>
+      <c r="K41">
+        <v>50.25303021002787</v>
+      </c>
+      <c r="L41">
+        <v>0.9412569258110211</v>
       </c>
     </row>
     <row r="42">
@@ -1612,26 +2147,39 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>Pradera de Navarrulaque</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>1663.09</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84Pra</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D42">
-        <v>425.959164539973</v>
-      </c>
-      <c r="E42">
-        <v>21.71437367618375</v>
-      </c>
-      <c r="F42">
-        <v>445.3283329804738</v>
-      </c>
       <c r="G42">
-        <v>11.08737799795265</v>
+        <v>41.50000008288771</v>
       </c>
       <c r="H42">
-        <v>450.4924994309743</v>
+        <v>0.4685230752638743</v>
       </c>
       <c r="I42">
-        <v>37.84880750729634</v>
+        <v>42.86666694780191</v>
+      </c>
+      <c r="J42">
+        <v>0.364739177358561</v>
+      </c>
+      <c r="K42">
+        <v>45.89924275398141</v>
+      </c>
+      <c r="L42">
+        <v>1.017658504663952</v>
       </c>
     </row>
     <row r="43">
@@ -1642,26 +2190,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>Los Pozuelos-Cañada Real</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>930.53</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>16Poz</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D43">
-        <v>319.29083545506</v>
-      </c>
-      <c r="E43">
-        <v>17.15303846002212</v>
-      </c>
-      <c r="F43">
-        <v>318.9000000904004</v>
-      </c>
       <c r="G43">
-        <v>8.351375507783438</v>
+        <v>64.40833322207133</v>
       </c>
       <c r="H43">
-        <v>316.011667450269</v>
+        <v>0.5140863879591824</v>
       </c>
       <c r="I43">
-        <v>25.5188175170378</v>
+        <v>65.79166674613953</v>
+      </c>
+      <c r="J43">
+        <v>0.3790522007855041</v>
+      </c>
+      <c r="K43">
+        <v>70.28106061978774</v>
+      </c>
+      <c r="L43">
+        <v>0.6406453960758755</v>
       </c>
     </row>
     <row r="44">
@@ -1672,26 +2233,39 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>La Angostura</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>1153.63</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>37Ang</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D44">
-        <v>354.8516675382853</v>
-      </c>
-      <c r="E44">
-        <v>17.85082465296024</v>
-      </c>
-      <c r="F44">
-        <v>366.86416657269</v>
-      </c>
       <c r="G44">
-        <v>9.376591298504289</v>
+        <v>56.10000030199686</v>
       </c>
       <c r="H44">
-        <v>367.9500020742416</v>
+        <v>0.4770641950137755</v>
       </c>
       <c r="I44">
-        <v>31.308717699971</v>
+        <v>57.44999992847443</v>
+      </c>
+      <c r="J44">
+        <v>0.3638814665961179</v>
+      </c>
+      <c r="K44">
+        <v>61.53787852597959</v>
+      </c>
+      <c r="L44">
+        <v>0.7054708482312809</v>
       </c>
     </row>
     <row r="45">
@@ -1702,26 +2276,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>Camino de las Encinillas I</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>1395.18</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>59Enc</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D45">
-        <v>402.2491652568181</v>
-      </c>
-      <c r="E45">
-        <v>20.33994884852555</v>
-      </c>
-      <c r="F45">
-        <v>420.1058329443137</v>
-      </c>
       <c r="G45">
-        <v>10.5173012101982</v>
+        <v>48.03333280825367</v>
       </c>
       <c r="H45">
-        <v>424.1983314752579</v>
+        <v>0.4821249082935101</v>
       </c>
       <c r="I45">
-        <v>35.80546651879463</v>
+        <v>49.32499983503173</v>
+      </c>
+      <c r="J45">
+        <v>0.3564095280431772</v>
+      </c>
+      <c r="K45">
+        <v>52.94393945553086</v>
+      </c>
+      <c r="L45">
+        <v>0.8468210448674093</v>
       </c>
     </row>
     <row r="46">
@@ -1732,26 +2319,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>Restaurante La Isla</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>1252.92</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>44Res</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D46">
-        <v>354.6799978663524</v>
-      </c>
-      <c r="E46">
-        <v>19.35041777828446</v>
-      </c>
-      <c r="F46">
-        <v>351.2599995434284</v>
-      </c>
       <c r="G46">
-        <v>10.21263248032908</v>
+        <v>52.39999994138877</v>
       </c>
       <c r="H46">
-        <v>387.4016646146774</v>
+        <v>0.5048239861057863</v>
       </c>
       <c r="I46">
-        <v>34.50640552660255</v>
+        <v>54.00833329558373</v>
+      </c>
+      <c r="J46">
+        <v>0.3587885341503193</v>
+      </c>
+      <c r="K46">
+        <v>57.78787912834774</v>
+      </c>
+      <c r="L46">
+        <v>0.7586244901138292</v>
       </c>
     </row>
     <row r="47">
@@ -1762,26 +2362,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>Gea de Albarracín</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>1066.96</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1GEA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D47">
-        <v>207.2233345508575</v>
-      </c>
-      <c r="E47">
-        <v>11.43754583072002</v>
-      </c>
-      <c r="F47">
-        <v>182.5308325613538</v>
-      </c>
       <c r="G47">
-        <v>8.757267120602911</v>
+        <v>57.3166667620341</v>
       </c>
       <c r="H47">
-        <v>221.4950013458729</v>
+        <v>0.5220685152237862</v>
       </c>
       <c r="I47">
-        <v>21.73180759624068</v>
+        <v>61.11666696270307</v>
+      </c>
+      <c r="J47">
+        <v>0.4352282919947815</v>
+      </c>
+      <c r="K47">
+        <v>65.573484731443</v>
+      </c>
+      <c r="L47">
+        <v>0.6045235320955842</v>
       </c>
     </row>
     <row r="48">
@@ -1792,26 +2405,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>Cuenca</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>1168.62</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>4CUE</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D48">
-        <v>348.0283350547155</v>
-      </c>
-      <c r="E48">
-        <v>9.838800576006708</v>
-      </c>
-      <c r="F48">
-        <v>350.9908331036568</v>
-      </c>
       <c r="G48">
-        <v>9.489860769198327</v>
+        <v>57.48333326975504</v>
       </c>
       <c r="H48">
-        <v>335.3549993832906</v>
+        <v>0.5398881783508136</v>
       </c>
       <c r="I48">
-        <v>39.48661010437997</v>
+        <v>60.95833303531011</v>
+      </c>
+      <c r="J48">
+        <v>0.3852757794609758</v>
+      </c>
+      <c r="K48">
+        <v>65.02651557416627</v>
+      </c>
+      <c r="L48">
+        <v>0.7127282374121395</v>
       </c>
     </row>
     <row r="49">
@@ -1822,26 +2448,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>Valdecuenca</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>1313.34</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>11VCU</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D49">
-        <v>262.7916658322017</v>
-      </c>
-      <c r="E49">
-        <v>13.3892596295512</v>
-      </c>
-      <c r="F49">
-        <v>225.6699993138512</v>
-      </c>
       <c r="G49">
-        <v>9.696451103159538</v>
+        <v>50.30833348135153</v>
       </c>
       <c r="H49">
-        <v>274.8025002479553</v>
+        <v>0.5204363969260142</v>
       </c>
       <c r="I49">
-        <v>26.09331342684366</v>
+        <v>54.00833329806725</v>
+      </c>
+      <c r="J49">
+        <v>0.3945109896226142</v>
+      </c>
+      <c r="K49">
+        <v>58.11136342449622</v>
+      </c>
+      <c r="L49">
+        <v>0.6580043442741328</v>
       </c>
     </row>
     <row r="50">
@@ -1852,26 +2491,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>Las Majadas</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>1447.01</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>14MAJ</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D50">
-        <v>418.1766666571299</v>
-      </c>
-      <c r="E50">
-        <v>9.114369915712926</v>
-      </c>
-      <c r="F50">
-        <v>408.6908311247826</v>
-      </c>
       <c r="G50">
-        <v>9.274687096826121</v>
+        <v>47.19999990953753</v>
       </c>
       <c r="H50">
-        <v>387.3333334922791</v>
+        <v>0.5395921692216401</v>
       </c>
       <c r="I50">
-        <v>45.12036669033276</v>
+        <v>50.22500044604143</v>
+      </c>
+      <c r="J50">
+        <v>0.4083588124961767</v>
+      </c>
+      <c r="K50">
+        <v>53.67651546136899</v>
+      </c>
+      <c r="L50">
+        <v>0.8086382000910084</v>
       </c>
     </row>
     <row r="51">
@@ -1882,26 +2534,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>Uña</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>1147.66</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>3UÑA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D51">
-        <v>392.2674983739853</v>
-      </c>
-      <c r="E51">
-        <v>10.10017960119242</v>
-      </c>
-      <c r="F51">
-        <v>385.7283326983452</v>
-      </c>
       <c r="G51">
-        <v>8.749292373930006</v>
+        <v>56.95833313465118</v>
       </c>
       <c r="H51">
-        <v>370.0441677967708</v>
+        <v>0.5263210612830979</v>
       </c>
       <c r="I51">
-        <v>41.29241279543457</v>
+        <v>60.15000016490619</v>
+      </c>
+      <c r="J51">
+        <v>0.4024058871408586</v>
+      </c>
+      <c r="K51">
+        <v>64.35681848092513</v>
+      </c>
+      <c r="L51">
+        <v>0.6546717920093527</v>
       </c>
     </row>
     <row r="52">
@@ -1912,26 +2577,39 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>Moscardón</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>1622.73</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20MOS</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D52">
-        <v>297.2400006254514</v>
-      </c>
-      <c r="E52">
-        <v>12.20635498082915</v>
-      </c>
-      <c r="F52">
-        <v>269.5200004080932</v>
-      </c>
       <c r="G52">
-        <v>6.996751184694878</v>
+        <v>40.84999983167896</v>
       </c>
       <c r="H52">
-        <v>302.7650025288264</v>
+        <v>0.5080122487676456</v>
       </c>
       <c r="I52">
-        <v>28.22621303101196</v>
+        <v>44.24166673763345</v>
+      </c>
+      <c r="J52">
+        <v>0.4154315062126158</v>
+      </c>
+      <c r="K52">
+        <v>47.7946970365998</v>
+      </c>
+      <c r="L52">
+        <v>0.7948987950350607</v>
       </c>
     </row>
     <row r="53">
@@ -1942,26 +2620,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>Tragacete</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>1297.79</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>8TRG</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D53">
-        <v>379.5991640885671</v>
-      </c>
-      <c r="E53">
-        <v>9.325477576040626</v>
-      </c>
-      <c r="F53">
-        <v>365.8783321181933</v>
-      </c>
       <c r="G53">
-        <v>6.905614508965036</v>
+        <v>53.35833300153414</v>
       </c>
       <c r="H53">
-        <v>358.5908370018005</v>
+        <v>0.5046519375670128</v>
       </c>
       <c r="I53">
-        <v>38.38374106902662</v>
+        <v>56.23333351810774</v>
+      </c>
+      <c r="J53">
+        <v>0.4192254409899169</v>
+      </c>
+      <c r="K53">
+        <v>60.48333342689456</v>
+      </c>
+      <c r="L53">
+        <v>0.6378566024680697</v>
       </c>
     </row>
     <row r="54">
@@ -1972,26 +2663,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>Griegos</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>1543.02</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>17GRI</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D54">
-        <v>323.1000006198883</v>
-      </c>
-      <c r="E54">
-        <v>10.0270338408181</v>
-      </c>
-      <c r="F54">
-        <v>311.8950019280116</v>
-      </c>
       <c r="G54">
-        <v>5.878249474240797</v>
+        <v>43.19166672384988</v>
       </c>
       <c r="H54">
-        <v>326.4583340883255</v>
+        <v>0.5072940288323551</v>
       </c>
       <c r="I54">
-        <v>33.42469141876889</v>
+        <v>46.35000003377597</v>
+      </c>
+      <c r="J54">
+        <v>0.4564962537949267</v>
+      </c>
+      <c r="K54">
+        <v>50.0848485472979</v>
+      </c>
+      <c r="L54">
+        <v>0.7395849858689316</v>
       </c>
     </row>
     <row r="55">
@@ -2002,26 +2706,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>Tramacastilla</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>1385.01</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>13TRM</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D55">
-        <v>263.4633315006892</v>
-      </c>
-      <c r="E55">
-        <v>10.62312237338907</v>
-      </c>
-      <c r="F55">
-        <v>249.3816656072935</v>
-      </c>
       <c r="G55">
-        <v>6.87746551989792</v>
+        <v>46.43333334630976</v>
       </c>
       <c r="H55">
-        <v>275.7216680447261</v>
+        <v>0.5079097180902121</v>
       </c>
       <c r="I55">
-        <v>27.22707986456529</v>
+        <v>49.93333335965872</v>
+      </c>
+      <c r="J55">
+        <v>0.446226424184536</v>
+      </c>
+      <c r="K55">
+        <v>53.89999987365621</v>
+      </c>
+      <c r="L55">
+        <v>0.7072442789868568</v>
       </c>
     </row>
     <row r="56">
@@ -2032,26 +2749,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>Villar del Cobo</t>
+        </is>
+      </c>
+      <c r="D56">
+        <v>1501.56</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>16VCB</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D56">
-        <v>295.8133351604144</v>
-      </c>
-      <c r="E56">
-        <v>10.73248213733778</v>
-      </c>
-      <c r="F56">
-        <v>281.8616673052311</v>
-      </c>
       <c r="G56">
-        <v>6.427344859780215</v>
+        <v>42.01666688174009</v>
       </c>
       <c r="H56">
-        <v>304.6099985440572</v>
+        <v>0.5061634174982731</v>
       </c>
       <c r="I56">
-        <v>29.88511640414873</v>
+        <v>45.35833320021629</v>
+      </c>
+      <c r="J56">
+        <v>0.4470816141347995</v>
+      </c>
+      <c r="K56">
+        <v>48.99469715108474</v>
+      </c>
+      <c r="L56">
+        <v>0.7587531970522949</v>
       </c>
     </row>
     <row r="57">
@@ -2062,26 +2792,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>Monterde de Albarracín</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>1263.99</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>7MON</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D57">
-        <v>224.3608348766963</v>
-      </c>
-      <c r="E57">
-        <v>10.50451187948557</v>
-      </c>
-      <c r="F57">
-        <v>210.065832182765</v>
-      </c>
       <c r="G57">
-        <v>8.59872568930623</v>
+        <v>50.88333309690157</v>
       </c>
       <c r="H57">
-        <v>238.7866687575976</v>
+        <v>0.5261033242226878</v>
       </c>
       <c r="I57">
-        <v>25.20060612194454</v>
+        <v>54.6416663567846</v>
+      </c>
+      <c r="J57">
+        <v>0.4699881433435974</v>
+      </c>
+      <c r="K57">
+        <v>58.77348445581667</v>
+      </c>
+      <c r="L57">
+        <v>0.6604610214384505</v>
       </c>
     </row>
     <row r="58">
@@ -2092,26 +2835,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>Cella</t>
+        </is>
+      </c>
+      <c r="D58">
+        <v>1219.31</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>6CEL</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D58">
-        <v>209.4475000500679</v>
-      </c>
-      <c r="E58">
-        <v>10.91704822667453</v>
-      </c>
-      <c r="F58">
-        <v>187.9891677548488</v>
-      </c>
       <c r="G58">
-        <v>8.932245644716504</v>
+        <v>53.24999978144964</v>
       </c>
       <c r="H58">
-        <v>221.9483320315679</v>
+        <v>0.5239738573207151</v>
       </c>
       <c r="I58">
-        <v>22.83307920225387</v>
+        <v>56.97499973078569</v>
+      </c>
+      <c r="J58">
+        <v>0.4707632103379422</v>
+      </c>
+      <c r="K58">
+        <v>61.18787865205245</v>
+      </c>
+      <c r="L58">
+        <v>0.6422652982636582</v>
       </c>
     </row>
     <row r="59">
@@ -2122,26 +2878,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>Masegosa</t>
+        </is>
+      </c>
+      <c r="D59">
+        <v>1357.41</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>12MAS</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D59">
-        <v>374.1233329971632</v>
-      </c>
-      <c r="E59">
-        <v>6.753483846309092</v>
-      </c>
-      <c r="F59">
-        <v>357.3699995875359</v>
-      </c>
       <c r="G59">
-        <v>7.632876293923367</v>
+        <v>49.83333334575097</v>
       </c>
       <c r="H59">
-        <v>373.9341653982798</v>
+        <v>0.5519221563006365</v>
       </c>
       <c r="I59">
-        <v>41.55208756568273</v>
+        <v>52.71666668945302</v>
+      </c>
+      <c r="J59">
+        <v>0.4363039306606895</v>
+      </c>
+      <c r="K59">
+        <v>56.37878775686929</v>
+      </c>
+      <c r="L59">
+        <v>0.7403714759375117</v>
       </c>
     </row>
     <row r="60">
@@ -2152,26 +2921,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>Vega del Codorno</t>
+        </is>
+      </c>
+      <c r="D60">
+        <v>1450.55</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>15VCO</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D60">
-        <v>421.0566659768423</v>
-      </c>
-      <c r="E60">
-        <v>8.503704125785111</v>
-      </c>
-      <c r="F60">
-        <v>407.5849991838137</v>
-      </c>
       <c r="G60">
-        <v>8.198834146369697</v>
+        <v>45.70833330104749</v>
       </c>
       <c r="H60">
-        <v>397.9516652822495</v>
+        <v>0.5314745481243655</v>
       </c>
       <c r="I60">
-        <v>44.18933791651511</v>
+        <v>48.58333351804564</v>
+      </c>
+      <c r="J60">
+        <v>0.4325312386594927</v>
+      </c>
+      <c r="K60">
+        <v>52.1833334713892</v>
+      </c>
+      <c r="L60">
+        <v>0.7532014503797555</v>
       </c>
     </row>
     <row r="61">
@@ -2182,26 +2964,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>N. Río Cuervo</t>
+        </is>
+      </c>
+      <c r="D61">
+        <v>1577.11</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>19NRC</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D61">
-        <v>404.1966669956843</v>
-      </c>
-      <c r="E61">
-        <v>8.086198895594416</v>
-      </c>
-      <c r="F61">
-        <v>390.4566689332326</v>
-      </c>
       <c r="G61">
-        <v>7.704706753076154</v>
+        <v>42.15833328167597</v>
       </c>
       <c r="H61">
-        <v>393.0941651662191</v>
+        <v>0.5341595297409248</v>
       </c>
       <c r="I61">
-        <v>43.42576807600101</v>
+        <v>45.11666658613831</v>
+      </c>
+      <c r="J61">
+        <v>0.4345894905285911</v>
+      </c>
+      <c r="K61">
+        <v>48.42575763163129</v>
+      </c>
+      <c r="L61">
+        <v>0.8218109579085552</v>
       </c>
     </row>
     <row r="62">
@@ -2212,26 +3007,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>N. Río Tajo</t>
+        </is>
+      </c>
+      <c r="D62">
+        <v>1586.54</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>18TAJ</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D62">
-        <v>351.7766664077838</v>
-      </c>
-      <c r="E62">
-        <v>11.04884624363994</v>
-      </c>
-      <c r="F62">
-        <v>330.4091674884161</v>
-      </c>
       <c r="G62">
-        <v>6.032551614985401</v>
+        <v>42.10000015050173</v>
       </c>
       <c r="H62">
-        <v>345.8716673056285</v>
+        <v>0.5030668979254848</v>
       </c>
       <c r="I62">
-        <v>34.17029022622733</v>
+        <v>45.10833299749841</v>
+      </c>
+      <c r="J62">
+        <v>0.4126725283691149</v>
+      </c>
+      <c r="K62">
+        <v>48.6939394397266</v>
+      </c>
+      <c r="L62">
+        <v>0.7580005358956973</v>
       </c>
     </row>
     <row r="63">
@@ -2242,26 +3050,39 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>El Recuenco</t>
+        </is>
+      </c>
+      <c r="D63">
+        <v>1162.44</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>5REC</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D63">
-        <v>340.0408326784769</v>
-      </c>
-      <c r="E63">
-        <v>8.368205786466621</v>
-      </c>
-      <c r="F63">
-        <v>324.7175011634827</v>
-      </c>
       <c r="G63">
-        <v>5.98488559547347</v>
+        <v>56.74999982118607</v>
       </c>
       <c r="H63">
-        <v>339.8224997123083</v>
+        <v>0.6079335770799978</v>
       </c>
       <c r="I63">
-        <v>36.38354624481391</v>
+        <v>59.59999995430311</v>
+      </c>
+      <c r="J63">
+        <v>0.4145195246818538</v>
+      </c>
+      <c r="K63">
+        <v>63.55833346735348</v>
+      </c>
+      <c r="L63">
+        <v>0.7259476779484626</v>
       </c>
     </row>
     <row r="64">
@@ -2272,26 +3093,39 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>Pinilla de Molina</t>
+        </is>
+      </c>
+      <c r="D64">
+        <v>1304.21</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>9PIN</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D64">
-        <v>266.8299996058146</v>
-      </c>
-      <c r="E64">
-        <v>6.565759575776115</v>
-      </c>
-      <c r="F64">
-        <v>262.6774994333585</v>
-      </c>
       <c r="G64">
-        <v>7.034444741478178</v>
+        <v>51.80833322306474</v>
       </c>
       <c r="H64">
-        <v>283.8541663090388</v>
+        <v>0.5306115470992117</v>
       </c>
       <c r="I64">
-        <v>30.7750591026033</v>
+        <v>55.01666657129924</v>
+      </c>
+      <c r="J64">
+        <v>0.5057860114487648</v>
+      </c>
+      <c r="K64">
+        <v>58.85530293800614</v>
+      </c>
+      <c r="L64">
+        <v>0.6879040573991944</v>
       </c>
     </row>
     <row r="65">
@@ -2302,26 +3136,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>Salmerón</t>
+        </is>
+      </c>
+      <c r="D65">
+        <v>1128.05</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2SAL</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D65">
-        <v>343.9591673711936</v>
-      </c>
-      <c r="E65">
-        <v>8.982484775496921</v>
-      </c>
-      <c r="F65">
-        <v>327.2366658647855</v>
-      </c>
       <c r="G65">
-        <v>5.789877226759702</v>
+        <v>57.59166697661082</v>
       </c>
       <c r="H65">
-        <v>339.4924983382225</v>
+        <v>0.6071163366361554</v>
       </c>
       <c r="I65">
-        <v>37.03909214791184</v>
+        <v>60.50833337008953</v>
+      </c>
+      <c r="J65">
+        <v>0.4127482580365697</v>
+      </c>
+      <c r="K65">
+        <v>64.49242385409096</v>
+      </c>
+      <c r="L65">
+        <v>0.7586217825516207</v>
       </c>
     </row>
     <row r="66">
@@ -2332,26 +3179,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>Torremocha del Pinar</t>
+        </is>
+      </c>
+      <c r="D66">
+        <v>1304.4</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>10TMO</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="D66">
-        <v>261.5725001096726</v>
-      </c>
-      <c r="E66">
-        <v>6.407729254179526</v>
-      </c>
-      <c r="F66">
-        <v>269.9658315579097</v>
-      </c>
       <c r="G66">
-        <v>7.758566365705843</v>
+        <v>52.08333322405815</v>
       </c>
       <c r="H66">
-        <v>281.6616670290629</v>
+        <v>0.5363522447079027</v>
       </c>
       <c r="I66">
-        <v>27.64991144206209</v>
+        <v>55.25000008692344</v>
+      </c>
+      <c r="J66">
+        <v>0.511567545525739</v>
+      </c>
+      <c r="K66">
+        <v>58.5749998959628</v>
+      </c>
+      <c r="L66">
+        <v>0.7608566186315768</v>
       </c>
     </row>
     <row r="67">
@@ -2362,26 +3222,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>JAV1-Pico</t>
+        </is>
+      </c>
+      <c r="D67">
+        <v>2010.09</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1JAV</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D67">
-        <v>303.7958317498366</v>
-      </c>
-      <c r="E67">
-        <v>19.68125815033343</v>
-      </c>
-      <c r="F67">
-        <v>295.9699994002779</v>
-      </c>
       <c r="G67">
-        <v>13.86866109660616</v>
+        <v>31.50833318879207</v>
       </c>
       <c r="H67">
-        <v>369.3016669899225</v>
+        <v>0.4313415748693049</v>
       </c>
       <c r="I67">
-        <v>32.39536519900562</v>
+        <v>34.40833333631357</v>
+      </c>
+      <c r="J67">
+        <v>0.3685274924272014</v>
+      </c>
+      <c r="K67">
+        <v>36.8022729244196</v>
+      </c>
+      <c r="L67">
+        <v>1.206746819047532</v>
       </c>
     </row>
     <row r="68">
@@ -2392,26 +3265,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>JAV2-Estación</t>
+        </is>
+      </c>
+      <c r="D68">
+        <v>1921.92</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2JAV</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D68">
-        <v>299.7958317399025</v>
-      </c>
-      <c r="E68">
-        <v>19.42475095052399</v>
-      </c>
-      <c r="F68">
-        <v>292.1224995752176</v>
-      </c>
       <c r="G68">
-        <v>13.72441357756796</v>
+        <v>32.09166659756253</v>
       </c>
       <c r="H68">
-        <v>364.7958323309819</v>
+        <v>0.4272570775239392</v>
       </c>
       <c r="I68">
-        <v>32.21315267242734</v>
+        <v>34.97500004402051</v>
+      </c>
+      <c r="J68">
+        <v>0.3773353034320417</v>
+      </c>
+      <c r="K68">
+        <v>37.45454562207063</v>
+      </c>
+      <c r="L68">
+        <v>1.197344109812885</v>
       </c>
     </row>
     <row r="69">
@@ -2422,26 +3308,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>JAV3-Apollos</t>
+        </is>
+      </c>
+      <c r="D69">
+        <v>1835.75</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>3JAV</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D69">
-        <v>286.5016677478949</v>
-      </c>
-      <c r="E69">
-        <v>18.73392893535525</v>
-      </c>
-      <c r="F69">
-        <v>280.2858335946997</v>
-      </c>
       <c r="G69">
-        <v>13.20638416712575</v>
+        <v>35.85000008003166</v>
       </c>
       <c r="H69">
-        <v>350.8316649695237</v>
+        <v>0.4416902723942555</v>
       </c>
       <c r="I69">
-        <v>31.35113101776227</v>
+        <v>38.7499999900659</v>
+      </c>
+      <c r="J69">
+        <v>0.3905124816118564</v>
+      </c>
+      <c r="K69">
+        <v>41.45075738071606</v>
+      </c>
+      <c r="L69">
+        <v>1.101749974381021</v>
       </c>
     </row>
     <row r="70">
@@ -2452,26 +3351,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>JAV4-Pinar</t>
+        </is>
+      </c>
+      <c r="D70">
+        <v>1713.18</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>4JAV</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D70">
-        <v>286.1383331616719</v>
-      </c>
-      <c r="E70">
-        <v>18.51966532993729</v>
-      </c>
-      <c r="F70">
-        <v>278.4324997638663</v>
-      </c>
       <c r="G70">
-        <v>13.15646560090163</v>
+        <v>37.56666674961647</v>
       </c>
       <c r="H70">
-        <v>348.0808344980081</v>
+        <v>0.4292516087447917</v>
       </c>
       <c r="I70">
-        <v>31.14873397242561</v>
+        <v>40.5166667525967</v>
+      </c>
+      <c r="J70">
+        <v>0.3844910097708691</v>
+      </c>
+      <c r="K70">
+        <v>43.2893938605081</v>
+      </c>
+      <c r="L70">
+        <v>1.058126492377698</v>
       </c>
     </row>
     <row r="71">
@@ -2482,26 +3394,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>JAV5-Fte Alonso</t>
+        </is>
+      </c>
+      <c r="D71">
+        <v>1614.48</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>5JAV</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D71">
-        <v>274.5649995406469</v>
-      </c>
-      <c r="E71">
-        <v>17.73247234149756</v>
-      </c>
-      <c r="F71">
-        <v>266.8541659265757</v>
-      </c>
       <c r="G71">
-        <v>12.64087076299065</v>
+        <v>44.54999974183738</v>
       </c>
       <c r="H71">
-        <v>333.6858314573765</v>
+        <v>0.4484695633491582</v>
       </c>
       <c r="I71">
-        <v>30.07888682882276</v>
+        <v>47.5500000740091</v>
+      </c>
+      <c r="J71">
+        <v>0.3952583191689742</v>
+      </c>
+      <c r="K71">
+        <v>50.85757586811528</v>
+      </c>
+      <c r="L71">
+        <v>0.8600732808184295</v>
       </c>
     </row>
     <row r="72">
@@ -2512,26 +3437,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>JAV6-Parthenoides</t>
+        </is>
+      </c>
+      <c r="D72">
+        <v>1514.56</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>6JAV</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D72">
-        <v>265.3108353118102</v>
-      </c>
-      <c r="E72">
-        <v>17.26471527955999</v>
-      </c>
-      <c r="F72">
-        <v>258.9933340301117</v>
-      </c>
       <c r="G72">
-        <v>12.27984291824988</v>
+        <v>44.98333317538102</v>
       </c>
       <c r="H72">
-        <v>324.3158332208793</v>
+        <v>0.450216026956823</v>
       </c>
       <c r="I72">
-        <v>29.40507815573426</v>
+        <v>48.01666680568208</v>
+      </c>
+      <c r="J72">
+        <v>0.3999826040029804</v>
+      </c>
+      <c r="K72">
+        <v>51.37272730560014</v>
+      </c>
+      <c r="L72">
+        <v>0.8306041147152582</v>
       </c>
     </row>
     <row r="73">
@@ -2542,26 +3480,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>JAV7-Ruinas</t>
+        </is>
+      </c>
+      <c r="D73">
+        <v>1406.92</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>7JAV</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D73">
-        <v>264.5691676537196</v>
-      </c>
-      <c r="E73">
-        <v>17.0360914749315</v>
-      </c>
-      <c r="F73">
-        <v>256.8991657445828</v>
-      </c>
       <c r="G73">
-        <v>12.21281930158934</v>
+        <v>46.60833352804184</v>
       </c>
       <c r="H73">
-        <v>321.2183333933353</v>
+        <v>0.4480900855468334</v>
       </c>
       <c r="I73">
-        <v>29.17076081440489</v>
+        <v>49.67499972631534</v>
+      </c>
+      <c r="J73">
+        <v>0.394686878054965</v>
+      </c>
+      <c r="K73">
+        <v>53.10681801131278</v>
+      </c>
+      <c r="L73">
+        <v>0.7774804304908557</v>
       </c>
     </row>
     <row r="74">
@@ -2572,26 +3523,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>JAV8-Senda fluvial</t>
+        </is>
+      </c>
+      <c r="D74">
+        <v>1304</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>8JAV</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D74">
-        <v>260.284999748071</v>
-      </c>
-      <c r="E74">
-        <v>16.14329672584651</v>
-      </c>
-      <c r="F74">
-        <v>249.0958326011896</v>
-      </c>
       <c r="G74">
-        <v>12.00352014868138</v>
+        <v>49.59166655441126</v>
       </c>
       <c r="H74">
-        <v>310.4074976791939</v>
+        <v>0.4653029831506756</v>
       </c>
       <c r="I74">
-        <v>28.56890057038726</v>
+        <v>52.6833336253961</v>
+      </c>
+      <c r="J74">
+        <v>0.3905835884353381</v>
+      </c>
+      <c r="K74">
+        <v>56.38333348523487</v>
+      </c>
+      <c r="L74">
+        <v>0.7282350888670079</v>
       </c>
     </row>
     <row r="75">
@@ -2602,26 +3566,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>JAV9-Huellas</t>
+        </is>
+      </c>
+      <c r="D75">
+        <v>1205.88</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>9JAV</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D75">
-        <v>246.4416661560535</v>
-      </c>
-      <c r="E75">
-        <v>15.18411028764764</v>
-      </c>
-      <c r="F75">
-        <v>235.705001446108</v>
-      </c>
       <c r="G75">
-        <v>11.40004680190056</v>
+        <v>51.55833334724108</v>
       </c>
       <c r="H75">
-        <v>293.6316687365373</v>
+        <v>0.4631789461140867</v>
       </c>
       <c r="I75">
-        <v>27.27545339888975</v>
+        <v>54.7249999170502</v>
+      </c>
+      <c r="J75">
+        <v>0.3908057154299299</v>
+      </c>
+      <c r="K75">
+        <v>58.49166664571473</v>
+      </c>
+      <c r="L75">
+        <v>0.6848154191721915</v>
       </c>
     </row>
     <row r="76">
@@ -2632,26 +3609,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>JAV10-7 Chorrazos</t>
+        </is>
+      </c>
+      <c r="D76">
+        <v>1114.43</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>10JAV</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D76">
-        <v>236.2574990491072</v>
-      </c>
-      <c r="E76">
-        <v>14.31858328918864</v>
-      </c>
-      <c r="F76">
-        <v>224.889164502422</v>
-      </c>
       <c r="G76">
-        <v>10.95934829274184</v>
+        <v>53.81666681170464</v>
       </c>
       <c r="H76">
-        <v>280.0183324714502</v>
+        <v>0.4735211398390779</v>
       </c>
       <c r="I76">
-        <v>26.2693651829784</v>
+        <v>57.07499993344148</v>
+      </c>
+      <c r="J76">
+        <v>0.3974046832033069</v>
+      </c>
+      <c r="K76">
+        <v>60.94772733702804</v>
+      </c>
+      <c r="L76">
+        <v>0.663884178962727</v>
       </c>
     </row>
     <row r="77">
@@ -2662,26 +3652,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>La Cebedilla</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>1372.79</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>8Cebe</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D77">
-        <v>534.7641654188434</v>
-      </c>
-      <c r="E77">
-        <v>32.25302387952076</v>
-      </c>
-      <c r="F77">
-        <v>586.6858387986819</v>
-      </c>
       <c r="G77">
-        <v>15.5555182669367</v>
+        <v>47.2083331917723</v>
       </c>
       <c r="H77">
-        <v>542.6383321285248</v>
+        <v>0.5030462678686273</v>
       </c>
       <c r="I77">
-        <v>39.98211545248021</v>
+        <v>48.05833318425963</v>
+      </c>
+      <c r="J77">
+        <v>0.3440264468932876</v>
+      </c>
+      <c r="K77">
+        <v>51.00984832915393</v>
+      </c>
+      <c r="L77">
+        <v>0.8764925532450586</v>
       </c>
     </row>
     <row r="78">
@@ -2692,26 +3695,39 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>Prado de las Pozas</t>
+        </is>
+      </c>
+      <c r="D78">
+        <v>1955.97</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>16Pozas</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="D78">
-        <v>611.1216651027402</v>
-      </c>
-      <c r="E78">
-        <v>38.58104431291069</v>
-      </c>
-      <c r="F78">
-        <v>668.1250030795733</v>
-      </c>
       <c r="G78">
-        <v>19.00536155122025</v>
+        <v>30.88333327323198</v>
       </c>
       <c r="H78">
-        <v>631.8850006262461</v>
+        <v>0.4803210755295847</v>
       </c>
       <c r="I78">
-        <v>48.12455806152673</v>
+        <v>31.58333323989064</v>
+      </c>
+      <c r="J78">
+        <v>0.3503470524450201</v>
+      </c>
+      <c r="K78">
+        <v>33.32575738607821</v>
+      </c>
+      <c r="L78">
+        <v>1.366378664237201</v>
       </c>
     </row>
     <row r="79">
@@ -2722,26 +3738,39 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>Collado La Gasca</t>
+        </is>
+      </c>
+      <c r="D79">
+        <v>1603.54</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>77Col</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
           <t>GUA</t>
         </is>
       </c>
-      <c r="D79">
-        <v>360.6933369835218</v>
-      </c>
-      <c r="E79">
-        <v>20.9065113324464</v>
-      </c>
-      <c r="F79">
-        <v>371.0266676743825</v>
-      </c>
       <c r="G79">
-        <v>9.97733871742852</v>
+        <v>42.87499988824129</v>
       </c>
       <c r="H79">
-        <v>359.6466702620189</v>
+        <v>0.4701876266752266</v>
       </c>
       <c r="I79">
-        <v>31.83931483642493</v>
+        <v>44.06666663382202</v>
+      </c>
+      <c r="J79">
+        <v>0.3701820456044522</v>
+      </c>
+      <c r="K79">
+        <v>47.11363619247057</v>
+      </c>
+      <c r="L79">
+        <v>1.038831318037652</v>
       </c>
     </row>
   </sheetData>
